--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -243,13 +243,28 @@
   </si>
   <si>
     <t>CUSTOMER_TARGET</t>
+  </si>
+  <si>
+    <t>BktestAnalyticalTable</t>
+  </si>
+  <si>
+    <t>StoreIntermediateResults</t>
+  </si>
+  <si>
+    <t>ResultTableName</t>
+  </si>
+  <si>
+    <t>CustomerInfoFormula</t>
+  </si>
+  <si>
+    <t>BACK_TESTING_V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -274,6 +289,14 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -972,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1011,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -997,8 +1020,12 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1015,10 +1042,22 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1035,6 +1074,9 @@
         <v>56</v>
       </c>
       <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1050,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -44,32 +44,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>CREATE, MODIFY, CREATE/MODIFY, DELETE</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -137,9 +113,6 @@
     <t>AnalyticalTable</t>
   </si>
   <si>
-    <t>TargetVariable</t>
-  </si>
-  <si>
     <t>SNDG</t>
   </si>
   <si>
@@ -191,9 +164,6 @@
     <t>CUSTOMER</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>CUSTOMER_SNDG</t>
   </si>
   <si>
@@ -258,6 +228,15 @@
   </si>
   <si>
     <t>BACK_TESTING_V</t>
+  </si>
+  <si>
+    <t>Counterparty</t>
+  </si>
+  <si>
+    <t>OUTPUT_IRIS_WEB</t>
+  </si>
+  <si>
+    <t>LIB_EWS_IT.ExternalInfo();</t>
   </si>
 </sst>
 </file>
@@ -360,8 +339,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -386,150 +365,6 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -994,24 +829,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1023,9 +861,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1042,49 +879,48 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
+      <c r="I3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1139,16 +975,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1156,16 +992,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1173,16 +1009,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1190,16 +1026,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1207,16 +1043,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1224,16 +1060,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1241,16 +1077,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1258,16 +1094,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1275,16 +1111,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1292,16 +1128,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1309,16 +1145,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1326,16 +1162,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1343,16 +1179,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1360,16 +1196,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1377,16 +1213,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1394,16 +1230,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -237,13 +237,19 @@
   </si>
   <si>
     <t>LIB_EWS_IT.ExternalInfo();</t>
+  </si>
+  <si>
+    <t>SEGMENT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_SEGMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,14 +274,6 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -832,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -849,7 +847,7 @@
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -926,10 +924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,6 +1238,23 @@
       </c>
       <c r="F18" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -236,13 +236,28 @@
     <t>OUTPUT_IRIS_WEB</t>
   </si>
   <si>
-    <t>LIB_EWS_IT.ExternalInfo();</t>
-  </si>
-  <si>
     <t>SEGMENT</t>
   </si>
   <si>
     <t>CUSTOMER_SEGMENT</t>
+  </si>
+  <si>
+    <t>TeradataSchema</t>
+  </si>
+  <si>
+    <t>TEWSA0D</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>CUSTOMER_EXPOSURE</t>
+  </si>
+  <si>
+    <t>TargetVariable</t>
+  </si>
+  <si>
+    <t>LIB_EWS_IT.ExternalInfo(Param1);</t>
   </si>
 </sst>
 </file>
@@ -828,26 +843,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,8 +874,10 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -888,8 +905,14 @@
       <c r="I2" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -912,7 +935,13 @@
         <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -924,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,16 +1274,33 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>CUSTOMER_SEGMENT</t>
-  </si>
-  <si>
-    <t>TeradataSchema</t>
-  </si>
-  <si>
-    <t>TEWSA0D</t>
   </si>
   <si>
     <t>EXPOSURE</t>
@@ -351,7 +345,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -843,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,10 +853,9 @@
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,9 +868,8 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -906,13 +898,10 @@
         <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -935,12 +924,9 @@
         <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1291,16 +1277,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -252,16 +252,77 @@
   </si>
   <si>
     <t>LIB_EWS_IT.ExternalInfo(Param1);</t>
+  </si>
+  <si>
+    <t>JD_NEG_EV_PERS</t>
+  </si>
+  <si>
+    <t>JD_PROTEST_INT</t>
+  </si>
+  <si>
+    <t>JD_DECANAL_PTF</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT</t>
+  </si>
+  <si>
+    <t>JD_INADE_QDEBT</t>
+  </si>
+  <si>
+    <t>JD_DEBT_PUBBLI</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_AVVI</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_NEG_EV_PERS</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_PROTEST_INT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_DECANAL_PTF</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_REATI_GRAVI</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_CONCOR_RICH</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_ACC_RISTRUT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_INADE_QDEBT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_DEBT_PUBBLI</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_CONCOR_AVVI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,6 +344,13 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -307,19 +375,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Variable" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -839,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -939,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,6 +1358,159 @@
       </c>
       <c r="F20" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="100">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -306,13 +306,52 @@
   </si>
   <si>
     <t>CUSTOMER_JD_CONCOR_AVVI</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_DATE</t>
+  </si>
+  <si>
+    <t>CUSTOMER_GROUP_BANKRUPTCY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>CUSTOMER_GROUP_BANKRUPTCY_FL_DATE</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RATING_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DELTA_EQUITY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DELTA_TURNOVER_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>SCONFINO_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>SEGNALAZIONE_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>FL_PEGG_BILANCI</t>
+  </si>
+  <si>
+    <t>FL_DATE6M</t>
+  </si>
+  <si>
+    <t>SEGNALAZIONE_SOFF_BANCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -328,15 +367,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -377,16 +453,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,8 +544,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -506,8 +587,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -554,8 +635,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -602,8 +683,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -911,7 +992,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,6 +1592,193 @@
       </c>
       <c r="F29" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="101">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -345,16 +345,26 @@
   </si>
   <si>
     <t>SEGNALAZIONE_SOFF_BANCA</t>
+  </si>
+  <si>
+    <t>DIFF_SEGNALAZIONE_OVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,19 +463,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1091,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,6 +1790,23 @@
       </c>
       <c r="F40" s="9" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -348,16 +348,56 @@
   </si>
   <si>
     <t>DIFF_SEGNALAZIONE_OVER</t>
+  </si>
+  <si>
+    <t>CRSYS_TUA</t>
+  </si>
+  <si>
+    <t>CRSYS_TUR</t>
+  </si>
+  <si>
+    <t>CRSYS_TUS</t>
+  </si>
+  <si>
+    <t>CRSYS_UCFBT</t>
+  </si>
+  <si>
+    <t>CRSYS_Q_DER</t>
+  </si>
+  <si>
+    <t>CRSYS_TUC</t>
+  </si>
+  <si>
+    <t>CRSYS_ITUR</t>
+  </si>
+  <si>
+    <t>CRSYS_UA</t>
+  </si>
+  <si>
+    <t>CRSYS_US</t>
+  </si>
+  <si>
+    <t>CRSYS_UR</t>
+  </si>
+  <si>
+    <t>CRSYS_UT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,19 +503,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1102,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,6 +1848,193 @@
       </c>
       <c r="F41" s="10" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="118">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -381,16 +381,48 @@
   </si>
   <si>
     <t>CRSYS_UT</t>
+  </si>
+  <si>
+    <t>CR0_TUA</t>
+  </si>
+  <si>
+    <t>CR0_TUR</t>
+  </si>
+  <si>
+    <t>CR0_TUS</t>
+  </si>
+  <si>
+    <t>CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>XRA_GSC_MAX_L3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRA_RSC_ACC_L1M </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,19 +535,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1143,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,6 +2069,108 @@
       </c>
       <c r="F52" s="11" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="150">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -398,17 +398,120 @@
     <t>XRA_GSC_MAX_L3M</t>
   </si>
   <si>
-    <t xml:space="preserve">XRA_RSC_ACC_L1M </t>
+    <t>XRA_RSC_ACC_L1M</t>
+  </si>
+  <si>
+    <t>CR0_TUC</t>
+  </si>
+  <si>
+    <t>CR0_ITUR</t>
+  </si>
+  <si>
+    <t>CR0_UA</t>
+  </si>
+  <si>
+    <t>CR0_US</t>
+  </si>
+  <si>
+    <t>CR0_UR</t>
+  </si>
+  <si>
+    <t>CR0_UT</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_AT_M_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_AT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_BT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_FAT_L3M</t>
+  </si>
+  <si>
+    <t>CR0_Q_DER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,19 +638,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1177,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,16 +2247,16 @@
       <c r="A57" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="14" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2160,17 +2264,561 @@
       <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="14" t="s">
         <v>117</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="14" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="159">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -495,6 +495,33 @@
   </si>
   <si>
     <t>CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t>FACT_ANT_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FACT_MAX_GG_L1M</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,6 +2846,159 @@
       </c>
       <c r="F90" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="208">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -522,6 +522,153 @@
   </si>
   <si>
     <t>FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>PREAM_UTIL_ACC_L1M</t>
+  </si>
+  <si>
+    <t>PREAM_MAX_MM_L1M</t>
+  </si>
+  <si>
+    <t>EDF_ImpliedRating</t>
+  </si>
+  <si>
+    <t>Bond_ImpliedRating</t>
+  </si>
+  <si>
+    <t>CDS_ImpliedRating</t>
+  </si>
+  <si>
+    <t>5Y_CDS_Spread</t>
+  </si>
+  <si>
+    <t>Distance_to_default</t>
+  </si>
+  <si>
+    <t>Rating_stress</t>
+  </si>
+  <si>
+    <t>Notizie_Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>Colore_Modulo_Dati_di_Mercato</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_MOL_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_MOL_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_M_L3M</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,6 +3146,839 @@
       </c>
       <c r="F99" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" t="s">
+        <v>160</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" t="s">
+        <v>161</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" t="s">
+        <v>164</v>
+      </c>
+      <c r="E105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" t="s">
+        <v>167</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" t="s">
+        <v>168</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" t="s">
+        <v>172</v>
+      </c>
+      <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" t="s">
+        <v>174</v>
+      </c>
+      <c r="E115" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" t="s">
+        <v>177</v>
+      </c>
+      <c r="E118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>181</v>
+      </c>
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" t="s">
+        <v>182</v>
+      </c>
+      <c r="E123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>183</v>
+      </c>
+      <c r="C124" t="s">
+        <v>183</v>
+      </c>
+      <c r="E124" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125" t="s">
+        <v>184</v>
+      </c>
+      <c r="E125" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" t="s">
+        <v>186</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>187</v>
+      </c>
+      <c r="C128" t="s">
+        <v>187</v>
+      </c>
+      <c r="E128" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" t="s">
+        <v>188</v>
+      </c>
+      <c r="E129" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" t="s">
+        <v>189</v>
+      </c>
+      <c r="E130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E131" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
+        <v>192</v>
+      </c>
+      <c r="C133" t="s">
+        <v>192</v>
+      </c>
+      <c r="E133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>193</v>
+      </c>
+      <c r="C134" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>194</v>
+      </c>
+      <c r="C135" t="s">
+        <v>194</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" t="s">
+        <v>195</v>
+      </c>
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" t="s">
+        <v>196</v>
+      </c>
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" t="s">
+        <v>197</v>
+      </c>
+      <c r="E138" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>198</v>
+      </c>
+      <c r="C139" t="s">
+        <v>198</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" t="s">
+        <v>199</v>
+      </c>
+      <c r="E140" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>200</v>
+      </c>
+      <c r="C141" t="s">
+        <v>200</v>
+      </c>
+      <c r="E141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>201</v>
+      </c>
+      <c r="C142" t="s">
+        <v>201</v>
+      </c>
+      <c r="E142" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>202</v>
+      </c>
+      <c r="C143" t="s">
+        <v>202</v>
+      </c>
+      <c r="E143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" t="s">
+        <v>203</v>
+      </c>
+      <c r="E144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>204</v>
+      </c>
+      <c r="C145" t="s">
+        <v>204</v>
+      </c>
+      <c r="E145" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>205</v>
+      </c>
+      <c r="C146" t="s">
+        <v>205</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" t="s">
+        <v>206</v>
+      </c>
+      <c r="C147" t="s">
+        <v>206</v>
+      </c>
+      <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" t="s">
+        <v>207</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -675,31 +675,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -812,22 +791,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1457,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,16 +2228,16 @@
         <v>20</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,16 +2245,16 @@
         <v>20</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,16 +2262,16 @@
         <v>20</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,33 +2279,33 @@
         <v>20</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>110</v>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>110</v>
+      <c r="F51" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,118 +2313,118 @@
         <v>20</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>112</v>
+      <c r="B53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>112</v>
+      <c r="F53" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>113</v>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
+        <v>150</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>113</v>
+      <c r="F54" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>114</v>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>151</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>114</v>
+      <c r="F55" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>115</v>
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>115</v>
+      <c r="F56" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>116</v>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>116</v>
+      <c r="F57" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>117</v>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>154</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>117</v>
+      <c r="F58" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2456,16 +2432,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,16 +2449,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,16 +2466,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,16 +2483,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,16 +2500,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,16 +2517,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2558,16 +2534,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,16 +2551,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2592,16 +2568,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,16 +2585,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,16 +2602,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2643,16 +2619,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2660,16 +2636,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2677,118 +2653,118 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
-      <c r="B73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" t="s">
-        <v>132</v>
+      <c r="B73" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
-      <c r="F73" t="s">
-        <v>132</v>
+      <c r="F73" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" t="s">
-        <v>133</v>
+      <c r="B74" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
-      <c r="F74" t="s">
-        <v>133</v>
+      <c r="F74" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" t="s">
-        <v>134</v>
+      <c r="B75" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
-      <c r="F75" t="s">
-        <v>134</v>
+      <c r="F75" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
-      <c r="B76" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" t="s">
-        <v>135</v>
+      <c r="B76" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
-      <c r="F76" t="s">
-        <v>135</v>
+      <c r="F76" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
-      <c r="B77" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" t="s">
-        <v>136</v>
+      <c r="B77" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
-      <c r="F77" t="s">
-        <v>136</v>
+      <c r="F77" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" t="s">
-        <v>137</v>
+      <c r="B78" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
-      <c r="F78" t="s">
-        <v>137</v>
+      <c r="F78" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,16 +2772,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,16 +2789,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2830,16 +2806,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,16 +2823,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2864,16 +2840,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,16 +2857,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,16 +2874,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,16 +2891,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2932,16 +2908,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2949,16 +2925,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2966,16 +2942,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2983,16 +2959,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,16 +2976,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3017,16 +2993,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3034,16 +3010,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,16 +3027,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3068,16 +3044,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,16 +3061,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,16 +3078,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3119,16 +3095,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3136,16 +3112,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3153,16 +3129,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3170,16 +3146,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3187,16 +3163,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3204,16 +3180,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3221,16 +3197,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,16 +3214,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,16 +3231,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C106" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3272,16 +3248,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,16 +3265,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3306,16 +3282,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="217">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -669,16 +669,57 @@
   </si>
   <si>
     <t>FINIMP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>ISDA_CREDIT_EVENT_DECLARED_CDS</t>
+  </si>
+  <si>
+    <t>CDS_SPREAD_5Y</t>
+  </si>
+  <si>
+    <t>JD_PASTDUE_PUBCRED_EMPL</t>
+  </si>
+  <si>
+    <t>JD_COLLATER_VAL_DECR</t>
+  </si>
+  <si>
+    <t>JD_DELTA_CASHFLOW</t>
+  </si>
+  <si>
+    <t>COVENANT_BREACH</t>
+  </si>
+  <si>
+    <t>JD_BOND_TRADE_SUSP</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT_2</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -791,23 +832,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B148"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,374 +1981,374 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>89</v>
+      <c r="B30" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>87</v>
+      <c r="F30" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>90</v>
+      <c r="B31" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>88</v>
+      <c r="F31" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>91</v>
+      <c r="B32" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>91</v>
+      <c r="F32" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>92</v>
+      <c r="B33" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>92</v>
+      <c r="F33" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>93</v>
+      <c r="B34" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>93</v>
+      <c r="F34" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>94</v>
+      <c r="B35" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>94</v>
+      <c r="F35" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>95</v>
+      <c r="B36" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>95</v>
+      <c r="F36" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>96</v>
+      <c r="B37" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>96</v>
+      <c r="F37" s="13" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
+      <c r="B38" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
-        <v>97</v>
+      <c r="F38" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>98</v>
+      <c r="B39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>98</v>
+      <c r="F39" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>99</v>
+      <c r="B40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>99</v>
+      <c r="F40" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>100</v>
+      <c r="B41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>100</v>
+      <c r="F41" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>101</v>
+      <c r="B42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>101</v>
+      <c r="F42" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>102</v>
+      <c r="B43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>102</v>
+      <c r="F43" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>103</v>
+      <c r="B44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>103</v>
+      <c r="F44" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>104</v>
+      <c r="B45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>104</v>
+      <c r="F45" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>105</v>
+      <c r="B46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>105</v>
+      <c r="F46" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>112</v>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>112</v>
+      <c r="F47" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>113</v>
+      <c r="B48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>113</v>
+      <c r="F48" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>114</v>
+      <c r="B49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>114</v>
+      <c r="F49" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>115</v>
+      <c r="B50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>115</v>
+      <c r="F50" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="B51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" t="s">
-        <v>149</v>
+      <c r="B51" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" t="s">
-        <v>149</v>
+      <c r="F51" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,16 +2356,16 @@
         <v>20</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2330,118 +2373,118 @@
         <v>20</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
-      <c r="B54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" t="s">
-        <v>150</v>
+      <c r="B54" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
-      <c r="F54" t="s">
-        <v>150</v>
+      <c r="F54" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
-      <c r="B55" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" t="s">
-        <v>151</v>
+      <c r="B55" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
-      <c r="F55" t="s">
-        <v>151</v>
+      <c r="F55" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
-      <c r="B56" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" t="s">
-        <v>152</v>
+      <c r="B56" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
-      <c r="F56" t="s">
-        <v>152</v>
+      <c r="F56" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
-      <c r="B57" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" t="s">
-        <v>153</v>
+      <c r="B57" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
-      <c r="F57" t="s">
-        <v>153</v>
+      <c r="F57" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" t="s">
-        <v>154</v>
+      <c r="B58" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
       </c>
-      <c r="F58" t="s">
-        <v>154</v>
+      <c r="F58" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="B59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" t="s">
-        <v>155</v>
+      <c r="B59" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
       </c>
-      <c r="F59" t="s">
-        <v>155</v>
+      <c r="F59" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2449,50 +2492,50 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
-      <c r="B61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
+      <c r="B61" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
       </c>
-      <c r="F61" t="s">
-        <v>157</v>
+      <c r="F61" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
-      <c r="B62" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" t="s">
-        <v>158</v>
+      <c r="B62" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
-      <c r="F62" t="s">
-        <v>158</v>
+      <c r="F62" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,16 +2543,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2517,16 +2560,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2534,16 +2577,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,16 +2594,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2568,16 +2611,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,16 +2628,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2602,16 +2645,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2619,16 +2662,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,16 +2679,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,118 +2696,118 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>106</v>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>106</v>
+      <c r="F73" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>107</v>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s">
+        <v>161</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>107</v>
+      <c r="F74" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>108</v>
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>108</v>
+      <c r="F75" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>109</v>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>109</v>
+      <c r="F76" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>110</v>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>110</v>
+      <c r="F77" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>111</v>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>111</v>
+      <c r="F78" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,16 +2815,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,16 +2832,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2806,118 +2849,118 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
-      <c r="B82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" t="s">
-        <v>121</v>
+      <c r="B82" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
-      <c r="F82" t="s">
-        <v>121</v>
+      <c r="F82" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B83" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" t="s">
-        <v>122</v>
+      <c r="B83" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
-      <c r="F83" t="s">
-        <v>122</v>
+      <c r="F83" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
-      <c r="B84" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" t="s">
-        <v>123</v>
+      <c r="B84" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
-      <c r="F84" t="s">
-        <v>123</v>
+      <c r="F84" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
-      <c r="B85" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" t="s">
-        <v>124</v>
+      <c r="B85" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
-      <c r="F85" t="s">
-        <v>124</v>
+      <c r="F85" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
-      <c r="B86" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86" t="s">
-        <v>125</v>
+      <c r="B86" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
-      <c r="F86" t="s">
-        <v>125</v>
+      <c r="F86" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
-      <c r="B87" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" t="s">
-        <v>126</v>
+      <c r="B87" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
-      <c r="F87" t="s">
-        <v>126</v>
+      <c r="F87" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,16 +2968,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2942,16 +2985,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2959,16 +3002,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,16 +3019,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2993,16 +3036,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,16 +3053,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3027,16 +3070,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3044,16 +3087,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,16 +3104,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3078,16 +3121,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,16 +3138,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,16 +3155,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3129,16 +3172,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3146,16 +3189,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,16 +3223,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3197,16 +3240,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,16 +3257,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3231,16 +3274,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3248,16 +3291,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C107" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,16 +3308,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3282,16 +3325,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3299,16 +3342,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3316,16 +3359,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3333,16 +3376,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,16 +3393,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C113" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3367,16 +3410,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3384,16 +3427,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3401,16 +3444,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3418,16 +3461,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C117" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,16 +3478,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C118" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3452,16 +3495,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C119" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3469,16 +3512,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3486,16 +3529,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C121" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3503,16 +3546,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C122" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3520,16 +3563,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,16 +3580,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3554,16 +3597,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3571,16 +3614,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3588,16 +3631,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3605,16 +3648,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3622,16 +3665,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,16 +3682,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3656,16 +3699,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3673,16 +3716,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C132" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3690,16 +3733,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,16 +3750,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,16 +3767,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C135" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3741,16 +3784,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C136" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3758,16 +3801,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,16 +3818,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C138" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3792,16 +3835,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C139" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3809,16 +3852,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C140" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3826,16 +3869,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C141" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3843,16 +3886,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3860,16 +3903,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3877,16 +3920,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C144" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3894,16 +3937,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3911,16 +3954,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C146" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3928,16 +3971,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C147" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,15 +3988,168 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
+        <v>198</v>
+      </c>
+      <c r="C148" t="s">
+        <v>198</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" t="s">
+        <v>199</v>
+      </c>
+      <c r="C149" t="s">
+        <v>199</v>
+      </c>
+      <c r="E149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" t="s">
+        <v>200</v>
+      </c>
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" t="s">
+        <v>201</v>
+      </c>
+      <c r="C151" t="s">
+        <v>201</v>
+      </c>
+      <c r="E151" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" t="s">
+        <v>202</v>
+      </c>
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" t="s">
+        <v>203</v>
+      </c>
+      <c r="E153" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" t="s">
+        <v>204</v>
+      </c>
+      <c r="E154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155" t="s">
+        <v>205</v>
+      </c>
+      <c r="E155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" t="s">
+        <v>206</v>
+      </c>
+      <c r="E156" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" t="s">
         <v>207</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C157" t="s">
         <v>207</v>
       </c>
-      <c r="E148" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="E157" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" t="s">
         <v>207</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="219">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -696,16 +696,29 @@
   </si>
   <si>
     <t>JD_CONCOR_RICH_2</t>
+  </si>
+  <si>
+    <t>JD_INCROCIO_ASSEGNI</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI_FAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -832,23 +845,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -1474,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,85 +2148,85 @@
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>89</v>
+      <c r="B39" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>87</v>
+      <c r="F39" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>90</v>
+      <c r="B40" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>88</v>
+      <c r="F40" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>91</v>
+      <c r="B41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>91</v>
+      <c r="F41" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>92</v>
+      <c r="B42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>92</v>
+      <c r="F42" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>93</v>
+      <c r="B43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>93</v>
+      <c r="F43" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,16 +2234,16 @@
         <v>20</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,16 +2251,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2254,118 +2268,118 @@
         <v>20</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
+      <c r="B47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
-      <c r="F47" t="s">
-        <v>97</v>
+      <c r="F47" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>98</v>
+      <c r="B48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>98</v>
+      <c r="F48" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>99</v>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>99</v>
+      <c r="F49" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>100</v>
+      <c r="B50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>100</v>
+      <c r="F50" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>101</v>
+      <c r="B51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>101</v>
+      <c r="F51" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>102</v>
+      <c r="B52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>102</v>
+      <c r="F52" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2373,16 +2387,16 @@
         <v>20</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2390,16 +2404,16 @@
         <v>20</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,16 +2421,16 @@
         <v>20</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2424,16 +2438,16 @@
         <v>20</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,16 +2455,16 @@
         <v>20</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2458,16 +2472,16 @@
         <v>20</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2475,33 +2489,33 @@
         <v>20</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
-      <c r="B60" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" t="s">
-        <v>149</v>
+      <c r="B60" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
       </c>
-      <c r="F60" t="s">
-        <v>149</v>
+      <c r="F60" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,67 +2523,67 @@
         <v>20</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>117</v>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>117</v>
+      <c r="F62" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
-      <c r="B63" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" t="s">
-        <v>150</v>
+      <c r="B63" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" t="s">
-        <v>150</v>
+      <c r="F63" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
-      <c r="B64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" t="s">
-        <v>151</v>
+      <c r="B64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
-      <c r="F64" t="s">
-        <v>151</v>
+      <c r="F64" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2577,16 +2591,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,16 +2608,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,16 +2625,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,16 +2642,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2645,16 +2659,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2662,16 +2676,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,16 +2693,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,16 +2710,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,16 +2727,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,16 +2744,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2747,16 +2761,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,16 +2778,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,16 +2795,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2798,16 +2812,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,16 +2829,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,16 +2846,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,50 +2863,50 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>106</v>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>106</v>
+      <c r="F82" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>107</v>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>107</v>
+      <c r="F83" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,16 +2914,16 @@
         <v>20</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,16 +2931,16 @@
         <v>20</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,16 +2948,16 @@
         <v>20</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,50 +2965,50 @@
         <v>20</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
-      <c r="B88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" t="s">
-        <v>118</v>
+      <c r="B88" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
-      <c r="F88" t="s">
-        <v>118</v>
+      <c r="F88" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
-      <c r="B89" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" t="s">
-        <v>119</v>
+      <c r="B89" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
-      <c r="F89" t="s">
-        <v>119</v>
+      <c r="F89" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,16 +3016,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,16 +3033,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,16 +3050,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,16 +3067,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,16 +3084,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,16 +3101,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,16 +3118,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,16 +3135,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,16 +3152,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,16 +3169,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,16 +3186,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3189,16 +3203,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3206,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,16 +3237,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,16 +3254,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3257,16 +3271,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,16 +3288,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,16 +3305,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3308,16 +3322,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,16 +3339,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3342,16 +3356,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,16 +3373,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,16 +3390,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3393,16 +3407,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,16 +3424,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,16 +3441,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,16 +3458,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,16 +3475,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3478,16 +3492,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,16 +3509,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,16 +3526,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C120" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3529,16 +3543,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3546,16 +3560,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,16 +3577,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3580,16 +3594,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3597,16 +3611,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,16 +3628,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,16 +3645,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3648,16 +3662,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C128" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,16 +3679,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,16 +3696,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,16 +3713,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3716,16 +3730,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C132" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3733,16 +3747,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C133" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,16 +3764,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,16 +3781,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,16 +3798,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3801,16 +3815,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3818,16 +3832,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C138" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,16 +3849,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3852,16 +3866,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3869,16 +3883,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3886,16 +3900,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,16 +3917,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C143" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3920,16 +3934,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C144" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3937,16 +3951,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3954,16 +3968,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3971,16 +3985,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,16 +4002,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,16 +4019,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C149" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,16 +4036,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C150" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,16 +4053,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C151" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,16 +4070,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C152" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4073,16 +4087,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C153" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4090,16 +4104,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4107,16 +4121,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C155" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,16 +4138,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,15 +4155,49 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
+        <v>205</v>
+      </c>
+      <c r="C157" t="s">
+        <v>205</v>
+      </c>
+      <c r="E157" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" t="s">
+        <v>206</v>
+      </c>
+      <c r="E158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s">
         <v>207</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C159" t="s">
         <v>207</v>
       </c>
-      <c r="E157" t="s">
-        <v>38</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="E159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" t="s">
         <v>207</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -1491,7 +1491,7 @@
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="A34" sqref="A34:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A35"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="222">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>JD_REATI_GRAVI_FAM</t>
+  </si>
+  <si>
+    <t>DM_Color_EDF</t>
+  </si>
+  <si>
+    <t>DM_Color_CDS</t>
+  </si>
+  <si>
+    <t>DM_Color_BOND</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1488,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,51 +2922,51 @@
       <c r="A84" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>106</v>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>219</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>106</v>
+      <c r="F84" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>107</v>
+      <c r="B85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" t="s">
+        <v>220</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
-      <c r="F85" s="11" t="s">
-        <v>107</v>
+      <c r="F85" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>108</v>
+      <c r="B86" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" t="s">
+        <v>221</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>108</v>
+      <c r="F86" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,16 +2974,16 @@
         <v>20</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,16 +2991,16 @@
         <v>20</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,67 +3008,67 @@
         <v>20</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
-      <c r="B90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" t="s">
-        <v>118</v>
+      <c r="B90" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
-      <c r="F90" t="s">
-        <v>118</v>
+      <c r="F90" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
-      <c r="B91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" t="s">
-        <v>119</v>
+      <c r="B91" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
-      <c r="F91" t="s">
-        <v>119</v>
+      <c r="F91" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
-      <c r="B92" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" t="s">
-        <v>120</v>
+      <c r="B92" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
-      <c r="F92" t="s">
-        <v>120</v>
+      <c r="F92" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,16 +3076,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,16 +3093,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,16 +3110,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,16 +3127,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,16 +3144,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3152,16 +3161,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,16 +3178,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3186,16 +3195,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,16 +3212,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,16 +3229,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,16 +3246,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,16 +3263,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,16 +3280,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,16 +3297,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,16 +3314,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3322,16 +3331,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3339,16 +3348,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3356,16 +3365,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3373,16 +3382,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,16 +3399,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,16 +3416,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,16 +3433,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3441,16 +3450,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3458,16 +3467,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,16 +3484,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3492,16 +3501,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3509,16 +3518,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3526,16 +3535,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3543,16 +3552,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3560,16 +3569,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3577,16 +3586,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3594,16 +3603,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3611,16 +3620,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3628,16 +3637,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,16 +3654,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3662,16 +3671,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,16 +3688,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,16 +3705,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C130" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3713,16 +3722,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3730,16 +3739,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C132" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,16 +3756,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C133" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,16 +3773,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3781,16 +3790,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C135" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3798,16 +3807,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,16 +3824,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C137" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3832,16 +3841,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3849,16 +3858,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C139" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3866,16 +3875,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3883,16 +3892,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,16 +3909,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,16 +3926,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3934,16 +3943,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C144" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3951,16 +3960,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C145" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3968,16 +3977,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,16 +3994,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C147" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,16 +4011,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C148" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4019,16 +4028,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C149" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4036,16 +4045,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4053,16 +4062,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C151" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4070,16 +4079,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4087,16 +4096,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C153" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,16 +4113,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C154" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4121,16 +4130,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4138,16 +4147,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C156" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,16 +4164,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C157" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4172,16 +4181,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4189,15 +4198,66 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
+        <v>204</v>
+      </c>
+      <c r="C159" t="s">
+        <v>204</v>
+      </c>
+      <c r="E159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>205</v>
+      </c>
+      <c r="C160" t="s">
+        <v>205</v>
+      </c>
+      <c r="E160" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>206</v>
+      </c>
+      <c r="C161" t="s">
+        <v>206</v>
+      </c>
+      <c r="E161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" t="s">
         <v>207</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C162" t="s">
         <v>207</v>
       </c>
-      <c r="E159" t="s">
-        <v>38</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="E162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" t="s">
         <v>207</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="223">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -711,16 +711,26 @@
   </si>
   <si>
     <t>DM_Color_BOND</t>
+  </si>
+  <si>
+    <t>AVVIO_PROCEDUTA_CONCORSUALE_SOGLIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -854,23 +864,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1497,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,17 +2202,17 @@
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>89</v>
+      <c r="B41" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>87</v>
+      <c r="F41" s="15" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2209,50 +2220,50 @@
         <v>20</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>88</v>
+      <c r="F42" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>91</v>
+      <c r="B43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>91</v>
+      <c r="F43" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>92</v>
+      <c r="B44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>92</v>
+      <c r="F44" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,16 +2271,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2277,16 +2288,16 @@
         <v>20</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2294,16 +2305,16 @@
         <v>20</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,101 +2322,101 @@
         <v>20</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
+      <c r="B49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="F49" t="s">
-        <v>97</v>
+      <c r="F49" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>98</v>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>98</v>
+      <c r="F50" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>99</v>
+      <c r="B51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>99</v>
+      <c r="F51" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>100</v>
+      <c r="B52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>100</v>
+      <c r="F52" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>101</v>
+      <c r="B53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>101</v>
+      <c r="F53" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,16 +2424,16 @@
         <v>20</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2430,16 +2441,16 @@
         <v>20</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,16 +2458,16 @@
         <v>20</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2464,16 +2475,16 @@
         <v>20</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,16 +2492,16 @@
         <v>20</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2498,16 +2509,16 @@
         <v>20</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,16 +2526,16 @@
         <v>20</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2532,50 +2543,50 @@
         <v>20</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
-      <c r="B62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" t="s">
-        <v>149</v>
+      <c r="B62" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
-      <c r="F62" t="s">
-        <v>149</v>
+      <c r="F62" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>116</v>
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>149</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>116</v>
+      <c r="F63" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2583,33 +2594,33 @@
         <v>20</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
-      <c r="B65" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+      <c r="B65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
-      <c r="F65" t="s">
-        <v>150</v>
+      <c r="F65" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2617,16 +2628,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2634,16 +2645,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,16 +2662,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,16 +2679,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2685,16 +2696,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2702,16 +2713,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,16 +2730,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,16 +2747,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,16 +2764,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2770,16 +2781,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2787,16 +2798,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2804,16 +2815,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2821,16 +2832,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2838,16 +2849,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,16 +2866,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,16 +2883,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,16 +2900,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2906,16 +2917,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,16 +2934,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2940,16 +2951,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2957,33 +2968,33 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>106</v>
+      <c r="B87" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" t="s">
+        <v>221</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>106</v>
+      <c r="F87" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,16 +3002,16 @@
         <v>20</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3008,16 +3019,16 @@
         <v>20</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,16 +3036,16 @@
         <v>20</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3042,16 +3053,16 @@
         <v>20</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3059,33 +3070,33 @@
         <v>20</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
-      <c r="B93" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" t="s">
-        <v>118</v>
+      <c r="B93" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
-      <c r="F93" t="s">
-        <v>118</v>
+      <c r="F93" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3093,16 +3104,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,16 +3121,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,16 +3138,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,16 +3155,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,16 +3172,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,16 +3189,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3212,16 +3223,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3229,16 +3240,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,16 +3257,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3263,16 +3274,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,16 +3291,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3297,16 +3308,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3314,16 +3325,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,16 +3342,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3348,16 +3359,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,16 +3376,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3382,16 +3393,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,16 +3410,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3416,16 +3427,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3433,16 +3444,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3450,16 +3461,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3467,16 +3478,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,16 +3495,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3501,16 +3512,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3518,16 +3529,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,16 +3546,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3552,16 +3563,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,16 +3580,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3586,16 +3597,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3603,16 +3614,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3620,16 +3631,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,16 +3648,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3654,16 +3665,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3671,16 +3682,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,16 +3699,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,16 +3716,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3722,16 +3733,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3739,16 +3750,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3756,16 +3767,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3773,16 +3784,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3790,16 +3801,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3807,16 +3818,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3824,16 +3835,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3841,16 +3852,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,16 +3869,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,16 +3886,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,16 +3903,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3909,16 +3920,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,16 +3937,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3943,16 +3954,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3960,16 +3971,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3977,16 +3988,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,16 +4005,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4011,16 +4022,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C148" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4028,16 +4039,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C149" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,16 +4056,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C150" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4062,16 +4073,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C151" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4079,16 +4090,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,16 +4107,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C153" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,16 +4124,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C154" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4130,16 +4141,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C155" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4147,16 +4158,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,16 +4175,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C157" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4181,16 +4192,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4198,16 +4209,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4215,16 +4226,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C160" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4232,16 +4243,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4249,15 +4260,32 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
+        <v>206</v>
+      </c>
+      <c r="C162" t="s">
+        <v>206</v>
+      </c>
+      <c r="E162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
         <v>207</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>207</v>
       </c>
-      <c r="E162" t="s">
-        <v>38</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" t="s">
         <v>207</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="229">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -714,12 +714,30 @@
   </si>
   <si>
     <t>AVVIO_PROCEDUTA_CONCORSUALE_SOGLIE</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,7 +858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,6 +868,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAC2524"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -866,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -885,6 +909,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,6 +1244,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1254,6 +1296,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1508,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4287,6 +4346,57 @@
       </c>
       <c r="F163" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>226</v>
+      </c>
+      <c r="C164" t="s">
+        <v>226</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" t="s">
+        <v>227</v>
+      </c>
+      <c r="C165" t="s">
+        <v>227</v>
+      </c>
+      <c r="E165" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" t="s">
+        <v>228</v>
+      </c>
+      <c r="C166" t="s">
+        <v>228</v>
+      </c>
+      <c r="E166" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,6 +1551,9 @@
       <c r="G3" t="s">
         <v>62</v>
       </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
       <c r="I3" t="s">
         <v>68</v>
       </c>
@@ -1569,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A154" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="230">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -714,16 +714,44 @@
   </si>
   <si>
     <t>AVVIO_PROCEDUTA_CONCORSUALE_SOGLIE</t>
+  </si>
+  <si>
+    <t>FITCH_01</t>
+  </si>
+  <si>
+    <t>FITCH_02</t>
+  </si>
+  <si>
+    <t>FITCH_03</t>
+  </si>
+  <si>
+    <t>FITCH_04</t>
+  </si>
+  <si>
+    <t>FITCH_05</t>
+  </si>
+  <si>
+    <t>FITCH_06</t>
+  </si>
+  <si>
+    <t>FITCH_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -864,23 +892,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1508,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,191 +1819,191 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
+      <c r="B17" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F17" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
+      <c r="B18" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F18" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
+      <c r="B19" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F19" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
+      <c r="B20" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>65</v>
+      <c r="F20" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
+      <c r="B21" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>69</v>
+      <c r="F21" s="16" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
+      <c r="B22" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s">
-        <v>70</v>
+      <c r="F22" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
+      <c r="B23" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" t="s">
-        <v>75</v>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,16 +2011,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="F28" t="s">
-        <v>76</v>
+      <c r="F28" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,135 +2028,135 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>208</v>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>208</v>
+      <c r="F30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>209</v>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>209</v>
+      <c r="F31" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>210</v>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>210</v>
+      <c r="F32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>211</v>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>211</v>
+      <c r="F33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>212</v>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>212</v>
+      <c r="F34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>213</v>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>213</v>
+      <c r="F35" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>214</v>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>214</v>
+      <c r="F36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,407 +2164,407 @@
         <v>20</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>216</v>
+      <c r="B38" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>217</v>
+      <c r="B39" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>217</v>
+      <c r="F39" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>218</v>
+      <c r="B40" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>218</v>
+      <c r="F40" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>222</v>
+      <c r="B41" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>222</v>
+      <c r="F41" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>89</v>
+      <c r="B42" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>90</v>
+      <c r="B43" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>88</v>
+      <c r="F43" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>91</v>
+      <c r="B44" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>91</v>
+      <c r="F44" s="13" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>92</v>
+      <c r="B45" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>92</v>
+      <c r="F45" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>93</v>
+      <c r="B46" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>93</v>
+      <c r="F46" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>94</v>
+      <c r="B47" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>94</v>
+      <c r="F47" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>95</v>
+      <c r="B48" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>95</v>
+      <c r="F48" s="15" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>96</v>
+      <c r="B49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>96</v>
+      <c r="F49" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>97</v>
+      <c r="B50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
-      <c r="F50" t="s">
-        <v>97</v>
+      <c r="F50" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>98</v>
+      <c r="B51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>98</v>
+      <c r="F51" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>99</v>
+      <c r="B52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>99</v>
+      <c r="F52" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>100</v>
+      <c r="B53" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>100</v>
+      <c r="F53" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>101</v>
+      <c r="B54" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>101</v>
+      <c r="F54" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>102</v>
+      <c r="B55" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>102</v>
+      <c r="F55" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>103</v>
+      <c r="B56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>103</v>
+      <c r="F56" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>104</v>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>104</v>
+      <c r="F57" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>105</v>
+      <c r="B58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>105</v>
+      <c r="F58" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>112</v>
+      <c r="B59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>112</v>
+      <c r="F59" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>113</v>
+      <c r="B60" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>113</v>
+      <c r="F60" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2543,16 +2572,16 @@
         <v>20</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,33 +2589,33 @@
         <v>20</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
-      <c r="B63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" t="s">
-        <v>149</v>
+      <c r="B63" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" t="s">
-        <v>149</v>
+      <c r="F63" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,16 +2623,16 @@
         <v>20</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,84 +2640,84 @@
         <v>20</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
-      <c r="B66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" t="s">
-        <v>150</v>
+      <c r="B66" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
-        <v>150</v>
+      <c r="F66" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
-      <c r="B67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" t="s">
-        <v>151</v>
+      <c r="B67" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
-      <c r="F67" t="s">
-        <v>151</v>
+      <c r="F67" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
-      <c r="B68" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" t="s">
-        <v>152</v>
+      <c r="B68" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
-      <c r="F68" t="s">
-        <v>152</v>
+      <c r="F68" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
-      <c r="B69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" t="s">
-        <v>153</v>
+      <c r="B69" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
-      <c r="F69" t="s">
-        <v>153</v>
+      <c r="F69" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,50 +2725,50 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" t="s">
-        <v>155</v>
+      <c r="B71" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
-      <c r="F71" t="s">
-        <v>155</v>
+      <c r="F71" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
-      <c r="B72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" t="s">
-        <v>156</v>
+      <c r="B72" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
-      <c r="F72" t="s">
-        <v>156</v>
+      <c r="F72" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2747,16 +2776,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,16 +2793,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,16 +2810,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2798,16 +2827,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,16 +2844,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,16 +2861,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,16 +2878,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2866,16 +2895,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,16 +2912,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,16 +2929,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,16 +2946,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,16 +2963,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,16 +2980,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,16 +2997,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,118 +3014,118 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>106</v>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" t="s">
+        <v>165</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>106</v>
+      <c r="F88" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>107</v>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>107</v>
+      <c r="F89" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>108</v>
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" t="s">
+        <v>167</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>108</v>
+      <c r="F90" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>109</v>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>109</v>
+      <c r="F91" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>110</v>
+      <c r="B92" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>110</v>
+      <c r="F92" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>111</v>
+      <c r="B93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" t="s">
+        <v>220</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>111</v>
+      <c r="F93" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,118 +3133,118 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
-      <c r="B95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" t="s">
-        <v>119</v>
+      <c r="B95" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
-      <c r="F95" t="s">
-        <v>119</v>
+      <c r="F95" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
-      <c r="B96" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" t="s">
-        <v>120</v>
+      <c r="B96" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
-      <c r="F96" t="s">
-        <v>120</v>
+      <c r="F96" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
-      <c r="B97" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" t="s">
-        <v>121</v>
+      <c r="B97" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
-      <c r="F97" t="s">
-        <v>121</v>
+      <c r="F97" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
-      <c r="B98" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" t="s">
-        <v>122</v>
+      <c r="B98" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
-      <c r="F98" t="s">
-        <v>122</v>
+      <c r="F98" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
-      <c r="B99" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" t="s">
-        <v>123</v>
+      <c r="B99" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
-      <c r="F99" t="s">
-        <v>123</v>
+      <c r="F99" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
-      <c r="B100" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" t="s">
-        <v>124</v>
+      <c r="B100" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
-      <c r="F100" t="s">
-        <v>124</v>
+      <c r="F100" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,16 +3252,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,16 +3269,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3257,16 +3286,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,16 +3303,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,16 +3320,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3308,16 +3337,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,16 +3354,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3342,16 +3371,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,16 +3388,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,16 +3405,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C110" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3393,16 +3422,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,16 +3439,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,16 +3456,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,16 +3473,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,16 +3490,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3478,16 +3507,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,16 +3524,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,16 +3541,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3529,16 +3558,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3546,16 +3575,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,16 +3592,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3580,16 +3609,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C122" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3597,16 +3626,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C123" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,16 +3643,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,16 +3660,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3648,16 +3677,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,16 +3694,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,16 +3711,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,16 +3728,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3716,16 +3745,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3733,16 +3762,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,16 +3779,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,16 +3796,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C133" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,16 +3813,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C134" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3801,16 +3830,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C135" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3818,16 +3847,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C136" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,16 +3864,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C137" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3852,16 +3881,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C138" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3869,16 +3898,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3886,16 +3915,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,16 +3932,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3920,16 +3949,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3937,16 +3966,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3954,16 +3983,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C144" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3971,16 +4000,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,16 +4017,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C146" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,16 +4034,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,16 +4051,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C148" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,16 +4068,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C149" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,16 +4085,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C150" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4073,16 +4102,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C151" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4090,16 +4119,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C152" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4107,16 +4136,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C153" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,16 +4153,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C154" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,16 +4170,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C155" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4158,16 +4187,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C156" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4175,16 +4204,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C157" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,16 +4221,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C158" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4209,16 +4238,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C159" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4226,16 +4255,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4243,16 +4272,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4260,16 +4289,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C162" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4277,15 +4306,134 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" t="s">
+        <v>200</v>
+      </c>
+      <c r="E163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>201</v>
+      </c>
+      <c r="C164" t="s">
+        <v>201</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" t="s">
+        <v>202</v>
+      </c>
+      <c r="E165" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" t="s">
+        <v>203</v>
+      </c>
+      <c r="C166" t="s">
+        <v>203</v>
+      </c>
+      <c r="E166" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" t="s">
+        <v>204</v>
+      </c>
+      <c r="C167" t="s">
+        <v>204</v>
+      </c>
+      <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" t="s">
+        <v>205</v>
+      </c>
+      <c r="C168" t="s">
+        <v>205</v>
+      </c>
+      <c r="E168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s">
+        <v>206</v>
+      </c>
+      <c r="C169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
         <v>207</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C170" t="s">
         <v>207</v>
       </c>
-      <c r="E163" t="s">
-        <v>38</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="E170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F170" t="s">
         <v>207</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -16,7 +16,7 @@
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="236">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -714,6 +714,24 @@
   </si>
   <si>
     <t>AVVIO_PROCEDUTA_CONCORSUALE_SOGLIE</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP3</t>
   </si>
   <si>
     <t>FITCH_01</t>
@@ -741,17 +759,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -868,7 +879,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +889,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAC2524"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -892,28 +909,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,7 +1455,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,6 +1538,9 @@
       <c r="G3" t="s">
         <v>62</v>
       </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
       <c r="I3" t="s">
         <v>68</v>
       </c>
@@ -1537,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,191 +1839,191 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>223</v>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>224</v>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>225</v>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>226</v>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>226</v>
+      <c r="F20" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>227</v>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>227</v>
+      <c r="F21" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>228</v>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>228</v>
+      <c r="F22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>229</v>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>65</v>
+      <c r="F27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,16 +2031,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>69</v>
+      <c r="F28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,135 +2048,135 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
+      <c r="B30" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
-        <v>71</v>
+      <c r="F30" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
+      <c r="B31" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F31" t="s">
-        <v>72</v>
+      <c r="F31" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
+      <c r="B32" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
-        <v>73</v>
+      <c r="F32" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
+      <c r="B33" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" t="s">
-        <v>74</v>
+      <c r="F33" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
+      <c r="B34" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="F34" t="s">
-        <v>75</v>
+      <c r="F34" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
+      <c r="B35" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" t="s">
-        <v>76</v>
+      <c r="F35" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
+      <c r="B36" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="F36" t="s">
-        <v>77</v>
+      <c r="F36" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,186 +2184,186 @@
         <v>20</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>209</v>
+      <c r="B38" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>210</v>
+      <c r="B39" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>210</v>
+      <c r="F39" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>211</v>
+      <c r="B40" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>211</v>
+      <c r="F40" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>212</v>
+      <c r="B41" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>212</v>
+      <c r="F41" s="15" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>213</v>
+      <c r="B42" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>213</v>
+      <c r="F42" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>214</v>
+      <c r="B43" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>214</v>
+      <c r="F43" s="15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>215</v>
+      <c r="B44" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>215</v>
+      <c r="F44" s="15" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>216</v>
+      <c r="B45" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>216</v>
+      <c r="F45" s="15" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>217</v>
+      <c r="B46" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>217</v>
+      <c r="F46" s="15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>218</v>
+      <c r="B47" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>218</v>
+      <c r="F47" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,16 +2371,16 @@
         <v>20</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4435,6 +4455,57 @@
       </c>
       <c r="F170" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" t="s">
+        <v>226</v>
+      </c>
+      <c r="C171" t="s">
+        <v>226</v>
+      </c>
+      <c r="E171" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>227</v>
+      </c>
+      <c r="C172" t="s">
+        <v>227</v>
+      </c>
+      <c r="E172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173" t="s">
+        <v>228</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -16,7 +16,7 @@
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="240">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -753,6 +753,18 @@
   </si>
   <si>
     <t>FITCH_07</t>
+  </si>
+  <si>
+    <t>ESP_FL_RATA_ARRETRATA</t>
+  </si>
+  <si>
+    <t>ESP_FL_SCONFINO_CC</t>
+  </si>
+  <si>
+    <t>ESP_FL_SCONFINO_CTPY</t>
+  </si>
+  <si>
+    <t>ESP_FL_FORBORNE_SCONFINO</t>
   </si>
 </sst>
 </file>
@@ -911,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -931,6 +943,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1557,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,68 +3182,68 @@
       <c r="A95" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>106</v>
+      <c r="B95" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
-      <c r="F95" s="11" t="s">
-        <v>106</v>
+      <c r="F95" s="17" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>107</v>
+      <c r="B96" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>107</v>
+      <c r="F96" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>108</v>
+      <c r="B97" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>108</v>
+      <c r="F97" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>109</v>
+      <c r="B98" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>109</v>
+      <c r="F98" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,16 +3251,16 @@
         <v>20</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,84 +3268,84 @@
         <v>20</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" t="s">
-        <v>118</v>
+      <c r="B101" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F101" t="s">
-        <v>118</v>
+      <c r="F101" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
-      <c r="B102" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" t="s">
-        <v>119</v>
+      <c r="B102" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" t="s">
-        <v>119</v>
+      <c r="F102" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
-      <c r="B103" t="s">
-        <v>120</v>
-      </c>
-      <c r="C103" t="s">
-        <v>120</v>
+      <c r="B103" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
-      <c r="F103" t="s">
-        <v>120</v>
+      <c r="F103" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
-      <c r="B104" t="s">
-        <v>121</v>
-      </c>
-      <c r="C104" t="s">
-        <v>121</v>
+      <c r="B104" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
-      <c r="F104" t="s">
-        <v>121</v>
+      <c r="F104" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3340,16 +3353,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3357,16 +3370,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3374,16 +3387,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3391,16 +3404,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3408,16 +3421,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3425,16 +3438,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3442,16 +3455,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3459,16 +3472,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3476,16 +3489,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3493,16 +3506,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3510,16 +3523,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,16 +3540,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,16 +3557,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,16 +3574,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3578,16 +3591,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,16 +3608,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3612,16 +3625,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,16 +3642,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3646,16 +3659,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3663,16 +3676,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C124" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3680,16 +3693,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3697,16 +3710,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C126" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3714,16 +3727,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3731,16 +3744,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3748,16 +3761,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C129" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,16 +3778,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C130" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3782,16 +3795,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,16 +3812,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3816,16 +3829,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,16 +3846,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3850,16 +3863,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C135" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3867,16 +3880,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,16 +3897,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3901,16 +3914,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3918,16 +3931,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,16 +3948,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C140" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3952,16 +3965,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C141" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3969,16 +3982,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C142" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3986,16 +3999,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C143" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4003,16 +4016,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4020,16 +4033,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C145" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4037,16 +4050,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C146" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4054,16 +4067,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C147" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,16 +4084,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4088,16 +4101,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C149" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,16 +4118,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C150" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4122,16 +4135,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C151" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,16 +4152,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C152" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4156,16 +4169,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C153" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4173,16 +4186,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C154" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,16 +4203,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C155" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4207,16 +4220,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C156" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,16 +4237,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C157" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4241,16 +4254,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C158" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4258,16 +4271,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C159" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4275,16 +4288,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C160" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4292,16 +4305,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C161" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4309,16 +4322,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C162" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4326,16 +4339,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C163" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4343,16 +4356,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C164" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4360,16 +4373,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C165" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4377,16 +4390,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C166" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4394,16 +4407,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C167" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4411,16 +4424,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C168" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4428,16 +4441,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C169" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,16 +4458,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C170" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4462,16 +4475,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
-      <c r="F171" s="16" t="s">
-        <v>223</v>
+      <c r="F171" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4479,16 +4492,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C172" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
-      <c r="F172" s="16" t="s">
-        <v>224</v>
+      <c r="F172" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4496,15 +4509,83 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
+        <v>206</v>
+      </c>
+      <c r="C173" t="s">
+        <v>206</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s">
+        <v>207</v>
+      </c>
+      <c r="C174" t="s">
+        <v>207</v>
+      </c>
+      <c r="E174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>226</v>
+      </c>
+      <c r="C175" t="s">
+        <v>226</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>227</v>
+      </c>
+      <c r="C176" t="s">
+        <v>227</v>
+      </c>
+      <c r="E176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" t="s">
         <v>228</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C177" t="s">
         <v>228</v>
       </c>
-      <c r="E173" t="s">
-        <v>38</v>
-      </c>
-      <c r="F173" s="16" t="s">
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" s="16" t="s">
         <v>225</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="243">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -765,6 +765,15 @@
   </si>
   <si>
     <t>ESP_FL_FORBORNE_SCONFINO</t>
+  </si>
+  <si>
+    <t>IND_12_CHANGE</t>
+  </si>
+  <si>
+    <t>IND_12_DELTA_DT</t>
+  </si>
+  <si>
+    <t>IND_212_FL_OVERRIDE</t>
   </si>
 </sst>
 </file>
@@ -910,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -918,12 +927,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -944,6 +968,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,85 +2597,88 @@
       <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>99</v>
+      <c r="B59" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>100</v>
+      <c r="B60" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>101</v>
+      <c r="B61" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>102</v>
+      <c r="B62" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>102</v>
+      <c r="F62" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>103</v>
+      <c r="B63" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>103</v>
+      <c r="F63" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2656,16 +2686,16 @@
         <v>20</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,16 +2703,16 @@
         <v>20</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2690,16 +2720,16 @@
         <v>20</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2707,16 +2737,16 @@
         <v>20</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2724,16 +2754,16 @@
         <v>20</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2741,33 +2771,33 @@
         <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
-      <c r="B70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" t="s">
-        <v>149</v>
+      <c r="B70" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
-      <c r="F70" t="s">
-        <v>149</v>
+      <c r="F70" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,16 +2805,16 @@
         <v>20</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2792,16 +2822,16 @@
         <v>20</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2809,50 +2839,50 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
-      <c r="B74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" t="s">
-        <v>151</v>
+      <c r="B74" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
-      <c r="F74" t="s">
-        <v>151</v>
+      <c r="F74" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>152</v>
+      <c r="B75" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
-      <c r="F75" t="s">
-        <v>152</v>
+      <c r="F75" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,16 +2890,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,16 +2907,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2894,16 +2924,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,16 +2958,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2945,16 +2975,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2962,16 +2992,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2979,16 +3009,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2996,16 +3026,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3013,16 +3043,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3030,16 +3060,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,16 +3077,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,16 +3094,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,16 +3111,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,16 +3128,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,16 +3145,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3132,16 +3162,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3149,16 +3179,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3166,67 +3196,67 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>236</v>
+      <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" t="s">
+        <v>219</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
-      <c r="F95" s="17" t="s">
-        <v>236</v>
+      <c r="F95" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>237</v>
+      <c r="B96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="17" t="s">
-        <v>237</v>
+      <c r="F96" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>238</v>
+      <c r="B97" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" t="s">
+        <v>221</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>238</v>
+      <c r="F97" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,67 +3264,67 @@
         <v>20</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>106</v>
+      <c r="B99" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>106</v>
+      <c r="F99" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>107</v>
+      <c r="B100" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>107</v>
+      <c r="F100" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>108</v>
+      <c r="B101" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>108</v>
+      <c r="F101" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3302,16 +3332,16 @@
         <v>20</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3319,16 +3349,16 @@
         <v>20</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3336,67 +3366,67 @@
         <v>20</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
-      <c r="B105" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" t="s">
-        <v>118</v>
+      <c r="B105" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
-      <c r="F105" t="s">
-        <v>118</v>
+      <c r="F105" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
-      <c r="B106" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" t="s">
-        <v>119</v>
+      <c r="B106" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
-      <c r="F106" t="s">
-        <v>119</v>
+      <c r="F106" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
-      <c r="B107" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" t="s">
-        <v>120</v>
+      <c r="B107" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
-      <c r="F107" t="s">
-        <v>120</v>
+      <c r="F107" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,16 +3434,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,16 +3451,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,16 +3468,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,16 +3485,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3472,16 +3502,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3489,16 +3519,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3506,16 +3536,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3523,16 +3553,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3540,16 +3570,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3557,16 +3587,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3574,16 +3604,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3591,16 +3621,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3608,16 +3638,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,16 +3655,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3642,16 +3672,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,16 +3689,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3676,16 +3706,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3693,16 +3723,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3710,16 +3740,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3727,16 +3757,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,16 +3774,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3761,16 +3791,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3778,16 +3808,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,16 +3825,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3812,16 +3842,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3829,16 +3859,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3846,16 +3876,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3863,16 +3893,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,16 +3910,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3897,16 +3927,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3914,16 +3944,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,16 +3961,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3948,16 +3978,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,16 +3995,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C141" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,16 +4012,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3999,16 +4029,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4016,16 +4046,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4033,16 +4063,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4050,16 +4080,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4067,16 +4097,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4084,16 +4114,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4101,16 +4131,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4118,16 +4148,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4135,16 +4165,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4152,16 +4182,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,16 +4199,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,16 +4216,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4203,16 +4233,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4220,16 +4250,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4237,16 +4267,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C157" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4254,16 +4284,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4271,16 +4301,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C159" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4288,16 +4318,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,16 +4335,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4322,16 +4352,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,16 +4369,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C163" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4356,16 +4386,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C164" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4373,16 +4403,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C165" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4390,16 +4420,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4407,16 +4437,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C167" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,16 +4454,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C168" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4441,16 +4471,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4458,16 +4488,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C170" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4475,16 +4505,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4492,16 +4522,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C172" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4509,16 +4539,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C173" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4526,16 +4556,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C174" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4543,16 +4573,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C175" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
-      <c r="F175" s="16" t="s">
-        <v>223</v>
+      <c r="F175" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4560,16 +4590,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
-      <c r="F176" s="16" t="s">
-        <v>224</v>
+      <c r="F176" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4577,15 +4607,66 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
+        <v>207</v>
+      </c>
+      <c r="C177" t="s">
+        <v>207</v>
+      </c>
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>226</v>
+      </c>
+      <c r="C178" t="s">
+        <v>226</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>227</v>
+      </c>
+      <c r="C179" t="s">
+        <v>227</v>
+      </c>
+      <c r="E179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s">
         <v>228</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C180" t="s">
         <v>228</v>
       </c>
-      <c r="E177" t="s">
-        <v>38</v>
-      </c>
-      <c r="F177" s="16" t="s">
+      <c r="E180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" s="16" t="s">
         <v>225</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -16,7 +16,7 @@
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="245">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -774,6 +774,12 @@
   </si>
   <si>
     <t>IND_212_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>NOPG_ROSSO_OVERRIDE</t>
+  </si>
+  <si>
+    <t>NOPG_ARANCIONE_OVERRIDE</t>
   </si>
 </sst>
 </file>
@@ -947,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -971,6 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="A61" sqref="A61:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,159 +2567,161 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" t="s">
-        <v>97</v>
+      <c r="A57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>98</v>
+      <c r="A58" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>240</v>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>241</v>
+      <c r="B60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>100</v>
+      <c r="C63" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>101</v>
+      <c r="B64" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>101</v>
+      <c r="F64" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>102</v>
+      <c r="B65" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>102</v>
+      <c r="F65" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2720,16 +2729,16 @@
         <v>20</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2737,16 +2746,16 @@
         <v>20</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,16 +2763,16 @@
         <v>20</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,16 +2780,16 @@
         <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,16 +2797,16 @@
         <v>20</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,16 +2814,16 @@
         <v>20</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2822,33 +2831,33 @@
         <v>20</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
-      <c r="B73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
+      <c r="B73" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
-      <c r="F73" t="s">
-        <v>149</v>
+      <c r="F73" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,67 +2865,67 @@
         <v>20</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>117</v>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>117</v>
+      <c r="F75" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
-      <c r="B76" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" t="s">
-        <v>150</v>
+      <c r="B76" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
-      <c r="F76" t="s">
-        <v>150</v>
+      <c r="F76" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
-      <c r="B77" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" t="s">
-        <v>151</v>
+      <c r="B77" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
-      <c r="F77" t="s">
-        <v>151</v>
+      <c r="F77" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2924,16 +2933,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,16 +2950,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2958,16 +2967,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,16 +2984,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,16 +3001,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3009,16 +3018,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,16 +3035,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3043,16 +3052,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3060,16 +3069,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3077,16 +3086,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,16 +3103,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,16 +3120,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,16 +3137,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,16 +3154,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3162,16 +3171,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3179,16 +3188,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,16 +3205,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,16 +3222,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3230,16 +3239,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3247,50 +3256,50 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>236</v>
+      <c r="B98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" t="s">
+        <v>220</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
-      <c r="F98" s="17" t="s">
-        <v>236</v>
+      <c r="F98" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>237</v>
+      <c r="B99" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" t="s">
+        <v>221</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
-      <c r="F99" s="17" t="s">
-        <v>237</v>
+      <c r="F99" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3298,16 +3307,16 @@
         <v>20</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,50 +3324,50 @@
         <v>20</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>106</v>
+      <c r="B102" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>106</v>
+      <c r="F102" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>107</v>
+      <c r="B103" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>107</v>
+      <c r="F103" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,16 +3375,16 @@
         <v>20</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,16 +3392,16 @@
         <v>20</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,16 +3409,16 @@
         <v>20</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,50 +3426,50 @@
         <v>20</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
-      <c r="B108" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" t="s">
-        <v>118</v>
+      <c r="B108" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
-      <c r="F108" t="s">
-        <v>118</v>
+      <c r="F108" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
-      <c r="B109" t="s">
-        <v>119</v>
-      </c>
-      <c r="C109" t="s">
-        <v>119</v>
+      <c r="B109" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
-      <c r="F109" t="s">
-        <v>119</v>
+      <c r="F109" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3468,16 +3477,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,16 +3494,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,16 +3511,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,16 +3528,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3536,16 +3545,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,16 +3562,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3570,16 +3579,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3587,16 +3596,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,16 +3613,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3621,16 +3630,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,16 +3647,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3655,16 +3664,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3672,16 +3681,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3689,16 +3698,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3706,16 +3715,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,16 +3732,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,16 +3749,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,16 +3766,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3774,16 +3783,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,16 +3800,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3808,16 +3817,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C130" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,16 +3834,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3842,16 +3851,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,16 +3868,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3876,16 +3885,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C134" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3893,16 +3902,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3910,16 +3919,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3927,16 +3936,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,16 +3953,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3961,16 +3970,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C139" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3978,16 +3987,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,16 +4004,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4012,16 +4021,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,16 +4038,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C143" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,16 +4055,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C144" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4063,16 +4072,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4080,16 +4089,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4097,16 +4106,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C147" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4114,16 +4123,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C148" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4131,16 +4140,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C149" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4148,16 +4157,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C150" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,16 +4174,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4182,16 +4191,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,16 +4208,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C153" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4216,16 +4225,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C154" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4233,16 +4242,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,16 +4259,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4267,16 +4276,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C157" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,16 +4293,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C158" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4301,16 +4310,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,16 +4327,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C160" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,16 +4344,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,16 +4361,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C162" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4369,16 +4378,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4386,16 +4395,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C164" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4403,16 +4412,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C165" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4420,16 +4429,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,16 +4446,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4454,16 +4463,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C168" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4471,16 +4480,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C169" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4488,16 +4497,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C170" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,16 +4514,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C171" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,16 +4531,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C172" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,16 +4548,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C173" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,16 +4565,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C174" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4573,16 +4582,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C175" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4590,16 +4599,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C176" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4607,16 +4616,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,16 +4633,16 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C178" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
-      <c r="F178" s="16" t="s">
-        <v>223</v>
+      <c r="F178" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4641,16 +4650,16 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C179" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
       </c>
-      <c r="F179" s="16" t="s">
-        <v>224</v>
+      <c r="F179" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4658,15 +4667,49 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
+        <v>226</v>
+      </c>
+      <c r="C180" t="s">
+        <v>226</v>
+      </c>
+      <c r="E180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>227</v>
+      </c>
+      <c r="C181" t="s">
+        <v>227</v>
+      </c>
+      <c r="E181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" t="s">
         <v>228</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C182" t="s">
         <v>228</v>
       </c>
-      <c r="E180" t="s">
-        <v>38</v>
-      </c>
-      <c r="F180" s="16" t="s">
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" s="16" t="s">
         <v>225</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -16,7 +16,7 @@
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="247">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -780,6 +780,12 @@
   </si>
   <si>
     <t>NOPG_ARANCIONE_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_117_FL_SUPER</t>
+  </si>
+  <si>
+    <t>IND_118_FL_SUPER</t>
   </si>
 </sst>
 </file>
@@ -1604,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,73 +2609,73 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
         <v>97</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>97</v>
       </c>
-      <c r="E59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="8" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2677,85 +2683,87 @@
         <v>20</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F63" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>100</v>
+      <c r="C65" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>101</v>
+      <c r="B66" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>101</v>
+      <c r="F66" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>102</v>
+      <c r="B67" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>102</v>
+      <c r="F67" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2763,16 +2771,16 @@
         <v>20</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2780,16 +2788,16 @@
         <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2797,16 +2805,16 @@
         <v>20</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,16 +2822,16 @@
         <v>20</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,16 +2839,16 @@
         <v>20</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2848,16 +2856,16 @@
         <v>20</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2865,33 +2873,33 @@
         <v>20</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>149</v>
+      <c r="B75" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
-      <c r="F75" t="s">
-        <v>149</v>
+      <c r="F75" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2899,67 +2907,67 @@
         <v>20</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>117</v>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>117</v>
+      <c r="F77" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" t="s">
-        <v>150</v>
+      <c r="B78" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
-      <c r="F78" t="s">
-        <v>150</v>
+      <c r="F78" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
-      <c r="B79" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" t="s">
-        <v>151</v>
+      <c r="B79" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
-      <c r="F79" t="s">
-        <v>151</v>
+      <c r="F79" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,16 +2975,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2984,16 +2992,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,16 +3009,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,16 +3026,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,16 +3043,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,16 +3060,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,16 +3077,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,16 +3094,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3103,16 +3111,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3120,16 +3128,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3137,16 +3145,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,16 +3162,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3171,16 +3179,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,16 +3196,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,16 +3213,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,16 +3230,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,16 +3247,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,16 +3264,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,16 +3281,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,50 +3298,50 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>236</v>
+      <c r="B100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" t="s">
+        <v>220</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
-      <c r="F100" s="17" t="s">
-        <v>236</v>
+      <c r="F100" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>237</v>
+      <c r="B101" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" t="s">
+        <v>221</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="17" t="s">
-        <v>237</v>
+      <c r="F101" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3341,16 +3349,16 @@
         <v>20</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,50 +3366,50 @@
         <v>20</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>106</v>
+      <c r="B104" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>106</v>
+      <c r="F104" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>107</v>
+      <c r="B105" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
-      <c r="F105" s="11" t="s">
-        <v>107</v>
+      <c r="F105" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,16 +3417,16 @@
         <v>20</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,16 +3434,16 @@
         <v>20</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,16 +3451,16 @@
         <v>20</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,50 +3468,50 @@
         <v>20</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
-      <c r="B110" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" t="s">
-        <v>118</v>
+      <c r="B110" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
-      <c r="F110" t="s">
-        <v>118</v>
+      <c r="F110" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
-      <c r="B111" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" t="s">
-        <v>119</v>
+      <c r="B111" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
-      <c r="F111" t="s">
-        <v>119</v>
+      <c r="F111" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,16 +3519,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3528,16 +3536,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,16 +3553,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,16 +3570,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,16 +3587,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3596,16 +3604,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,16 +3621,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3630,16 +3638,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,16 +3655,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,16 +3672,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,16 +3689,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3698,16 +3706,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3715,16 +3723,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,16 +3740,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3749,16 +3757,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3766,16 +3774,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3783,16 +3791,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3800,16 +3808,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,16 +3825,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3834,16 +3842,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3851,16 +3859,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,16 +3876,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,16 +3893,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C134" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3902,16 +3910,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,16 +3927,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C136" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3936,16 +3944,16 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3953,16 +3961,16 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3970,16 +3978,16 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,16 +3995,16 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,16 +4012,16 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C141" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4021,16 +4029,16 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,16 +4046,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,16 +4063,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4072,16 +4080,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,16 +4097,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,16 +4114,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4123,16 +4131,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4140,16 +4148,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4157,16 +4165,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4174,16 +4182,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4191,16 +4199,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4208,16 +4216,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,16 +4233,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4242,16 +4250,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,16 +4267,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,16 +4284,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4293,16 +4301,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4310,16 +4318,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4327,16 +4335,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4344,16 +4352,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4361,16 +4369,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4378,16 +4386,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4395,16 +4403,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C164" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4412,16 +4420,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C165" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4429,16 +4437,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4446,16 +4454,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4463,16 +4471,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C168" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4480,16 +4488,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4497,16 +4505,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4514,16 +4522,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4531,16 +4539,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C172" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4548,16 +4556,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4565,16 +4573,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4582,16 +4590,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,16 +4607,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C176" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4616,16 +4624,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C177" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4633,16 +4641,16 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4650,16 +4658,16 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4667,16 +4675,16 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
       </c>
-      <c r="F180" s="16" t="s">
-        <v>223</v>
+      <c r="F180" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,16 +4692,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C181" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E181" t="s">
         <v>38</v>
       </c>
-      <c r="F181" s="16" t="s">
-        <v>224</v>
+      <c r="F181" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4701,15 +4709,49 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
+        <v>226</v>
+      </c>
+      <c r="C182" t="s">
+        <v>226</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" t="s">
+        <v>227</v>
+      </c>
+      <c r="C183" t="s">
+        <v>227</v>
+      </c>
+      <c r="E183" t="s">
+        <v>38</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" t="s">
         <v>228</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C184" t="s">
         <v>228</v>
       </c>
-      <c r="E182" t="s">
-        <v>38</v>
-      </c>
-      <c r="F182" s="16" t="s">
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184" s="16" t="s">
         <v>225</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="278">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -786,16 +786,116 @@
   </si>
   <si>
     <t>IND_118_FL_SUPER</t>
+  </si>
+  <si>
+    <t>IND_25_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_525_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_512_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_25_OVER</t>
+  </si>
+  <si>
+    <t>IND_525_OVER</t>
+  </si>
+  <si>
+    <t>IND_512_OVER</t>
+  </si>
+  <si>
+    <t>IND_36_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_536_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_36_SUPER</t>
+  </si>
+  <si>
+    <t>IND_132_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_133_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_134_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_135_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_136_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_137_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_138_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_139_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_140_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_141_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_142_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_132_OVER</t>
+  </si>
+  <si>
+    <t>IND_133_OVER</t>
+  </si>
+  <si>
+    <t>IND_134_OVER</t>
+  </si>
+  <si>
+    <t>IND_135_FL_DATE_12M</t>
+  </si>
+  <si>
+    <t>IND_136_OVER</t>
+  </si>
+  <si>
+    <t>IND_137_OVER</t>
+  </si>
+  <si>
+    <t>IND_138_OVER</t>
+  </si>
+  <si>
+    <t>IND_139_OVER</t>
+  </si>
+  <si>
+    <t>IND_140_OVER</t>
+  </si>
+  <si>
+    <t>IND_141_OVER</t>
+  </si>
+  <si>
+    <t>IND_142_OVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -957,33 +1057,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,7 +1611,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,771 +2748,802 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" t="s">
-        <v>97</v>
+      <c r="A61" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>98</v>
+      <c r="A62" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>240</v>
+      <c r="B63" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="18" t="s">
-        <v>240</v>
+      <c r="F63" s="19" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>241</v>
+      <c r="B64" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>241</v>
+      <c r="F64" s="19" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>242</v>
+      <c r="B65" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="18" t="s">
-        <v>242</v>
+      <c r="F65" s="19" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>99</v>
+      <c r="A66" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>100</v>
+      <c r="A67" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>101</v>
+      <c r="A68" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>102</v>
+      <c r="A69" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>103</v>
+      <c r="A70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>104</v>
+      <c r="A71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>105</v>
+      <c r="A72" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>112</v>
+      <c r="A73" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>113</v>
+      <c r="A74" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>114</v>
+      <c r="A75" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>115</v>
+      <c r="A76" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" t="s">
-        <v>38</v>
-      </c>
-      <c r="F77" t="s">
-        <v>149</v>
+      <c r="A77" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>116</v>
+      <c r="A78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E79" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>117</v>
+      <c r="A79" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" t="s">
-        <v>150</v>
-      </c>
-      <c r="E80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
+      <c r="A80" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" t="s">
-        <v>151</v>
-      </c>
-      <c r="E81" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" t="s">
-        <v>151</v>
+      <c r="A81" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" t="s">
-        <v>152</v>
+      <c r="A82" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" t="s">
-        <v>153</v>
-      </c>
-      <c r="E83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" t="s">
-        <v>153</v>
+      <c r="A83" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E84" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" t="s">
-        <v>154</v>
+      <c r="A84" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" t="s">
-        <v>155</v>
-      </c>
-      <c r="C85" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F85" t="s">
-        <v>155</v>
+      <c r="A85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" t="s">
-        <v>156</v>
-      </c>
-      <c r="C86" t="s">
-        <v>156</v>
-      </c>
-      <c r="E86" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" t="s">
-        <v>156</v>
+      <c r="A86" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E87" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" t="s">
-        <v>157</v>
+      <c r="A87" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E88" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" t="s">
-        <v>158</v>
+      <c r="A88" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" t="s">
-        <v>159</v>
-      </c>
-      <c r="C89" t="s">
-        <v>159</v>
-      </c>
-      <c r="E89" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" t="s">
-        <v>159</v>
+      <c r="A89" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" t="s">
-        <v>160</v>
-      </c>
-      <c r="C90" t="s">
-        <v>160</v>
-      </c>
-      <c r="E90" t="s">
-        <v>38</v>
-      </c>
-      <c r="F90" t="s">
-        <v>160</v>
+      <c r="A90" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" t="s">
-        <v>161</v>
-      </c>
-      <c r="C91" t="s">
-        <v>161</v>
-      </c>
-      <c r="E91" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" t="s">
-        <v>161</v>
+      <c r="A91" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
-      <c r="B93" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" t="s">
-        <v>163</v>
+      <c r="B93" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
-      <c r="F93" t="s">
-        <v>163</v>
+      <c r="F93" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" t="s">
-        <v>164</v>
-      </c>
-      <c r="C94" t="s">
-        <v>164</v>
-      </c>
-      <c r="E94" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" t="s">
-        <v>164</v>
+      <c r="A94" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" t="s">
-        <v>165</v>
-      </c>
-      <c r="C95" t="s">
-        <v>165</v>
-      </c>
-      <c r="E95" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" t="s">
-        <v>165</v>
+      <c r="A95" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" t="s">
-        <v>166</v>
-      </c>
-      <c r="E96" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" t="s">
-        <v>166</v>
+      <c r="A96" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
-      <c r="B97" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" t="s">
-        <v>167</v>
+      <c r="B97" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
-      <c r="F97" t="s">
-        <v>167</v>
+      <c r="F97" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
-      <c r="B98" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" t="s">
-        <v>168</v>
+      <c r="B98" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
-      <c r="F98" t="s">
-        <v>168</v>
+      <c r="F98" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
-      <c r="B99" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" t="s">
-        <v>219</v>
+      <c r="B99" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
-      <c r="F99" t="s">
-        <v>219</v>
+      <c r="F99" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
-      <c r="B100" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" t="s">
-        <v>220</v>
+      <c r="B100" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
-      <c r="F100" t="s">
-        <v>220</v>
+      <c r="F100" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" t="s">
-        <v>221</v>
-      </c>
-      <c r="C101" t="s">
-        <v>221</v>
+      <c r="B101" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F101" t="s">
-        <v>221</v>
+      <c r="F101" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>236</v>
+      <c r="B102" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" s="17" t="s">
-        <v>236</v>
+      <c r="F102" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>237</v>
+      <c r="B103" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
-      <c r="F103" s="17" t="s">
-        <v>237</v>
+      <c r="F103" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>238</v>
+      <c r="B104" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
-      <c r="F104" s="17" t="s">
-        <v>238</v>
+      <c r="F104" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>239</v>
+      <c r="B105" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
-      <c r="F105" s="17" t="s">
-        <v>239</v>
+      <c r="F105" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,16 +3551,16 @@
         <v>20</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,33 +3568,33 @@
         <v>20</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>108</v>
+      <c r="B108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" t="s">
+        <v>149</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
-      <c r="F108" s="11" t="s">
-        <v>108</v>
+      <c r="F108" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3468,16 +3602,16 @@
         <v>20</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,33 +3619,33 @@
         <v>20</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>111</v>
+      <c r="B111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" t="s">
+        <v>150</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>111</v>
+      <c r="F111" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,16 +3653,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3536,16 +3670,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C113" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,16 +3687,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C114" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3570,16 +3704,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C115" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3587,16 +3721,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,16 +3738,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3621,16 +3755,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,16 +3772,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3655,16 +3789,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3672,16 +3806,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3689,16 +3823,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3706,16 +3840,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C123" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,16 +3857,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,16 +3874,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,16 +3891,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C126" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3774,16 +3908,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C127" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,16 +3925,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3808,16 +3942,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="C129" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,16 +3959,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3842,16 +3976,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="C131" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,186 +3993,186 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="C132" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
-      <c r="B133" t="s">
-        <v>139</v>
-      </c>
-      <c r="C133" t="s">
-        <v>139</v>
+      <c r="B133" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
-      <c r="F133" t="s">
-        <v>139</v>
+      <c r="F133" s="17" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
-      <c r="B134" t="s">
-        <v>140</v>
-      </c>
-      <c r="C134" t="s">
-        <v>140</v>
+      <c r="B134" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
-      <c r="F134" t="s">
-        <v>140</v>
+      <c r="F134" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
-      <c r="B135" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" t="s">
-        <v>141</v>
+      <c r="B135" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
-      <c r="F135" t="s">
-        <v>141</v>
+      <c r="F135" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
-      <c r="B136" t="s">
-        <v>142</v>
-      </c>
-      <c r="C136" t="s">
-        <v>142</v>
+      <c r="B136" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
-      <c r="F136" t="s">
-        <v>142</v>
+      <c r="F136" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
-      <c r="B137" t="s">
-        <v>143</v>
-      </c>
-      <c r="C137" t="s">
-        <v>143</v>
+      <c r="B137" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
-      <c r="F137" t="s">
-        <v>143</v>
+      <c r="F137" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
-      <c r="B138" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" t="s">
-        <v>144</v>
+      <c r="B138" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
-      <c r="F138" t="s">
-        <v>144</v>
+      <c r="F138" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
-      <c r="B139" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139" t="s">
-        <v>145</v>
+      <c r="B139" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
-      <c r="F139" t="s">
-        <v>145</v>
+      <c r="F139" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
-      <c r="B140" t="s">
-        <v>146</v>
-      </c>
-      <c r="C140" t="s">
-        <v>146</v>
+      <c r="B140" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
-      <c r="F140" t="s">
-        <v>146</v>
+      <c r="F140" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
-      <c r="B141" t="s">
-        <v>147</v>
-      </c>
-      <c r="C141" t="s">
-        <v>147</v>
+      <c r="B141" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
-      <c r="F141" t="s">
-        <v>147</v>
+      <c r="F141" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
-      <c r="B142" t="s">
-        <v>148</v>
-      </c>
-      <c r="C142" t="s">
-        <v>148</v>
+      <c r="B142" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
-      <c r="F142" t="s">
-        <v>148</v>
+      <c r="F142" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,16 +4180,16 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="C143" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4063,16 +4197,16 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="C144" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4080,16 +4214,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="C145" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4097,16 +4231,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4114,16 +4248,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="C147" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4131,16 +4265,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4148,16 +4282,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,16 +4299,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="C150" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4182,16 +4316,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C151" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,16 +4333,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4216,16 +4350,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="C153" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4233,16 +4367,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="C154" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,16 +4384,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="C155" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4267,16 +4401,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="C156" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,16 +4418,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="C157" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4301,16 +4435,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="C158" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,16 +4452,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="C159" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,16 +4469,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,16 +4486,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="C161" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4369,16 +4503,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="C162" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4386,16 +4520,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4403,16 +4537,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4420,16 +4554,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,16 +4571,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="C166" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4454,16 +4588,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="C167" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4471,16 +4605,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="C168" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4488,16 +4622,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="C169" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,16 +4639,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C170" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,16 +4656,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="C171" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,16 +4673,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,16 +4690,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="C173" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4573,16 +4707,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C174" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4590,16 +4724,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C175" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4607,16 +4741,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C176" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,16 +4758,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C177" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="E177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4641,16 +4775,16 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C178" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4658,16 +4792,16 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="C179" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4675,16 +4809,16 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C180" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,16 +4826,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="C181" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="E181" t="s">
         <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4709,16 +4843,16 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="C182" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="E182" t="s">
         <v>38</v>
       </c>
-      <c r="F182" s="16" t="s">
-        <v>223</v>
+      <c r="F182" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4726,16 +4860,16 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C183" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="E183" t="s">
         <v>38</v>
       </c>
-      <c r="F183" s="16" t="s">
-        <v>224</v>
+      <c r="F183" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4743,15 +4877,542 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
+        <v>179</v>
+      </c>
+      <c r="C184" t="s">
+        <v>179</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" t="s">
+        <v>180</v>
+      </c>
+      <c r="C185" t="s">
+        <v>180</v>
+      </c>
+      <c r="E185" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" t="s">
+        <v>181</v>
+      </c>
+      <c r="C186" t="s">
+        <v>181</v>
+      </c>
+      <c r="E186" t="s">
+        <v>38</v>
+      </c>
+      <c r="F186" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" t="s">
+        <v>182</v>
+      </c>
+      <c r="C187" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" t="s">
+        <v>183</v>
+      </c>
+      <c r="C188" t="s">
+        <v>183</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" t="s">
+        <v>184</v>
+      </c>
+      <c r="C189" t="s">
+        <v>184</v>
+      </c>
+      <c r="E189" t="s">
+        <v>38</v>
+      </c>
+      <c r="F189" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" t="s">
+        <v>185</v>
+      </c>
+      <c r="C190" t="s">
+        <v>185</v>
+      </c>
+      <c r="E190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" t="s">
+        <v>186</v>
+      </c>
+      <c r="C191" t="s">
+        <v>186</v>
+      </c>
+      <c r="E191" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" t="s">
+        <v>187</v>
+      </c>
+      <c r="C192" t="s">
+        <v>187</v>
+      </c>
+      <c r="E192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" t="s">
+        <v>188</v>
+      </c>
+      <c r="C193" t="s">
+        <v>188</v>
+      </c>
+      <c r="E193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" t="s">
+        <v>189</v>
+      </c>
+      <c r="C194" t="s">
+        <v>189</v>
+      </c>
+      <c r="E194" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" t="s">
+        <v>190</v>
+      </c>
+      <c r="C195" t="s">
+        <v>190</v>
+      </c>
+      <c r="E195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196" t="s">
+        <v>191</v>
+      </c>
+      <c r="E196" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" t="s">
+        <v>192</v>
+      </c>
+      <c r="C197" t="s">
+        <v>192</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198" t="s">
+        <v>193</v>
+      </c>
+      <c r="E198" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199" t="s">
+        <v>194</v>
+      </c>
+      <c r="E199" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" t="s">
+        <v>195</v>
+      </c>
+      <c r="C200" t="s">
+        <v>195</v>
+      </c>
+      <c r="E200" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="s">
+        <v>196</v>
+      </c>
+      <c r="C201" t="s">
+        <v>196</v>
+      </c>
+      <c r="E201" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="s">
+        <v>197</v>
+      </c>
+      <c r="C202" t="s">
+        <v>197</v>
+      </c>
+      <c r="E202" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" t="s">
+        <v>198</v>
+      </c>
+      <c r="C203" t="s">
+        <v>198</v>
+      </c>
+      <c r="E203" t="s">
+        <v>38</v>
+      </c>
+      <c r="F203" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" t="s">
+        <v>199</v>
+      </c>
+      <c r="C204" t="s">
+        <v>199</v>
+      </c>
+      <c r="E204" t="s">
+        <v>38</v>
+      </c>
+      <c r="F204" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" t="s">
+        <v>200</v>
+      </c>
+      <c r="C205" t="s">
+        <v>200</v>
+      </c>
+      <c r="E205" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" t="s">
+        <v>201</v>
+      </c>
+      <c r="C206" t="s">
+        <v>201</v>
+      </c>
+      <c r="E206" t="s">
+        <v>38</v>
+      </c>
+      <c r="F206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" t="s">
+        <v>202</v>
+      </c>
+      <c r="C207" t="s">
+        <v>202</v>
+      </c>
+      <c r="E207" t="s">
+        <v>38</v>
+      </c>
+      <c r="F207" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" t="s">
+        <v>203</v>
+      </c>
+      <c r="C208" t="s">
+        <v>203</v>
+      </c>
+      <c r="E208" t="s">
+        <v>38</v>
+      </c>
+      <c r="F208" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" t="s">
+        <v>204</v>
+      </c>
+      <c r="C209" t="s">
+        <v>204</v>
+      </c>
+      <c r="E209" t="s">
+        <v>38</v>
+      </c>
+      <c r="F209" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>205</v>
+      </c>
+      <c r="C210" t="s">
+        <v>205</v>
+      </c>
+      <c r="E210" t="s">
+        <v>38</v>
+      </c>
+      <c r="F210" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" t="s">
+        <v>206</v>
+      </c>
+      <c r="C211" t="s">
+        <v>206</v>
+      </c>
+      <c r="E211" t="s">
+        <v>38</v>
+      </c>
+      <c r="F211" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" t="s">
+        <v>207</v>
+      </c>
+      <c r="C212" t="s">
+        <v>207</v>
+      </c>
+      <c r="E212" t="s">
+        <v>38</v>
+      </c>
+      <c r="F212" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" t="s">
+        <v>226</v>
+      </c>
+      <c r="C213" t="s">
+        <v>226</v>
+      </c>
+      <c r="E213" t="s">
+        <v>38</v>
+      </c>
+      <c r="F213" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" t="s">
+        <v>227</v>
+      </c>
+      <c r="C214" t="s">
+        <v>227</v>
+      </c>
+      <c r="E214" t="s">
+        <v>38</v>
+      </c>
+      <c r="F214" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" t="s">
         <v>228</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C215" t="s">
         <v>228</v>
       </c>
-      <c r="E184" t="s">
-        <v>38</v>
-      </c>
-      <c r="F184" s="16" t="s">
+      <c r="E215" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215" s="16" t="s">
         <v>225</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="280">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -879,16 +879,29 @@
   </si>
   <si>
     <t>IND_142_OVER</t>
+  </si>
+  <si>
+    <t>IND_37_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_37_SUPER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1057,36 +1070,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1713,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69:E91"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,36 +2765,36 @@
       <c r="A61" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>247</v>
+      <c r="B61" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="19" t="s">
-        <v>247</v>
+      <c r="F61" s="21" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>248</v>
+      <c r="B62" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="19" t="s">
-        <v>248</v>
+      <c r="F62" s="21" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,17 +2802,17 @@
         <v>20</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2806,17 +2820,17 @@
         <v>20</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2824,17 +2838,17 @@
         <v>20</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,17 +2856,17 @@
         <v>20</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,17 +2874,17 @@
         <v>20</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2878,17 +2892,17 @@
         <v>20</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,53 +2910,53 @@
         <v>20</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>256</v>
+      <c r="B70" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="20" t="s">
-        <v>256</v>
+      <c r="F70" s="19" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>257</v>
+      <c r="B71" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="20" t="s">
-        <v>257</v>
+      <c r="F71" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2950,17 +2964,17 @@
         <v>20</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,17 +2982,17 @@
         <v>20</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,17 +3000,17 @@
         <v>20</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3004,17 +3018,17 @@
         <v>20</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3022,17 +3036,17 @@
         <v>20</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3040,17 +3054,17 @@
         <v>20</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,17 +3072,17 @@
         <v>20</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3076,17 +3090,17 @@
         <v>20</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,17 +3108,17 @@
         <v>20</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,17 +3126,17 @@
         <v>20</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,17 +3144,17 @@
         <v>20</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,17 +3162,17 @@
         <v>20</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3166,17 +3180,17 @@
         <v>20</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,17 +3198,17 @@
         <v>20</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3202,17 +3216,17 @@
         <v>20</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,17 +3234,17 @@
         <v>20</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,17 +3252,17 @@
         <v>20</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,17 +3270,17 @@
         <v>20</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,17 +3288,17 @@
         <v>20</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3292,87 +3306,87 @@
         <v>20</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" t="s">
-        <v>97</v>
-      </c>
-      <c r="E92" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" t="s">
-        <v>97</v>
+      <c r="B92" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>98</v>
+      <c r="A93" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>240</v>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>241</v>
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3380,85 +3394,87 @@
         <v>20</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F96" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E97" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>100</v>
+      <c r="C98" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>101</v>
+      <c r="B99" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>101</v>
+      <c r="F99" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>102</v>
+      <c r="B100" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>102</v>
+      <c r="F100" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,16 +3482,16 @@
         <v>20</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3483,16 +3499,16 @@
         <v>20</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3500,16 +3516,16 @@
         <v>20</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3517,16 +3533,16 @@
         <v>20</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3534,16 +3550,16 @@
         <v>20</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3551,16 +3567,16 @@
         <v>20</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,33 +3584,33 @@
         <v>20</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
-      <c r="B108" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" t="s">
-        <v>149</v>
+      <c r="B108" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
-      <c r="F108" t="s">
-        <v>149</v>
+      <c r="F108" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3602,67 +3618,67 @@
         <v>20</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>117</v>
+      <c r="B110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="s">
+        <v>149</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
-      <c r="F110" s="11" t="s">
-        <v>117</v>
+      <c r="F110" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
-      <c r="B111" t="s">
-        <v>150</v>
-      </c>
-      <c r="C111" t="s">
-        <v>150</v>
+      <c r="B111" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
-      <c r="F111" t="s">
-        <v>150</v>
+      <c r="F111" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
-      <c r="B112" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112" t="s">
-        <v>151</v>
+      <c r="B112" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
-      <c r="F112" t="s">
-        <v>151</v>
+      <c r="F112" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3670,16 +3686,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3687,16 +3703,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,16 +3720,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,16 +3737,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,16 +3754,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,16 +3771,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3772,16 +3788,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3789,16 +3805,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,16 +3822,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3823,16 +3839,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,16 +3856,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3857,16 +3873,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3874,16 +3890,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C125" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,16 +3907,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3908,16 +3924,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,16 +3941,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3942,16 +3958,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C129" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,16 +3975,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C130" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3976,16 +3992,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C131" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3993,50 +4009,50 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
-      <c r="B133" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>236</v>
+      <c r="B133" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" t="s">
+        <v>220</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
-      <c r="F133" s="17" t="s">
-        <v>236</v>
+      <c r="F133" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
-      <c r="B134" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>237</v>
+      <c r="B134" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" t="s">
+        <v>221</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
-      <c r="F134" s="17" t="s">
-        <v>237</v>
+      <c r="F134" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,16 +4060,16 @@
         <v>20</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4061,50 +4077,50 @@
         <v>20</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>106</v>
+      <c r="B137" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
-      <c r="F137" s="11" t="s">
-        <v>106</v>
+      <c r="F137" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>107</v>
+      <c r="B138" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>107</v>
+      <c r="F138" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4112,16 +4128,16 @@
         <v>20</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4129,16 +4145,16 @@
         <v>20</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4146,16 +4162,16 @@
         <v>20</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4163,50 +4179,50 @@
         <v>20</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
-      <c r="B143" t="s">
-        <v>118</v>
-      </c>
-      <c r="C143" t="s">
-        <v>118</v>
+      <c r="B143" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
-      <c r="F143" t="s">
-        <v>118</v>
+      <c r="F143" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
-      <c r="B144" t="s">
-        <v>119</v>
-      </c>
-      <c r="C144" t="s">
-        <v>119</v>
+      <c r="B144" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
-      <c r="F144" t="s">
-        <v>119</v>
+      <c r="F144" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4214,16 +4230,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C145" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4231,16 +4247,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C146" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4248,16 +4264,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C147" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,16 +4281,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C148" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4282,16 +4298,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,16 +4315,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C150" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4316,16 +4332,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4333,16 +4349,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C152" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,16 +4366,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4367,16 +4383,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,16 +4400,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4401,16 +4417,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4418,16 +4434,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C157" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4435,16 +4451,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C158" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4452,16 +4468,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C159" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4469,16 +4485,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C160" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4486,16 +4502,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C161" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4503,16 +4519,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C162" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4520,16 +4536,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C163" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4537,16 +4553,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C164" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4554,16 +4570,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C165" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4571,16 +4587,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C166" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,16 +4604,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C167" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4605,16 +4621,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C168" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4622,16 +4638,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C169" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,16 +4655,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C170" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4656,16 +4672,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C171" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4673,16 +4689,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C172" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4690,16 +4706,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C173" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4707,16 +4723,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4724,16 +4740,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C175" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4741,16 +4757,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C176" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4758,16 +4774,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C177" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4775,16 +4791,16 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C178" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,16 +4808,16 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C179" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,16 +4825,16 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C180" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4826,16 +4842,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C181" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E181" t="s">
         <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4843,16 +4859,16 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C182" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E182" t="s">
         <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4860,16 +4876,16 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C183" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E183" t="s">
         <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,16 +4893,16 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C184" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E184" t="s">
         <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4894,16 +4910,16 @@
         <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C185" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E185" t="s">
         <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4911,16 +4927,16 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4928,16 +4944,16 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C187" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4945,16 +4961,16 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C188" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4962,16 +4978,16 @@
         <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C189" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E189" t="s">
         <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4979,16 +4995,16 @@
         <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C190" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4996,16 +5012,16 @@
         <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C191" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5013,16 +5029,16 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C192" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5030,16 +5046,16 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C193" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5047,16 +5063,16 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C194" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5064,16 +5080,16 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C195" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5081,16 +5097,16 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C196" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5098,16 +5114,16 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C197" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5115,16 +5131,16 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5132,16 +5148,16 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C199" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5149,16 +5165,16 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C200" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5166,16 +5182,16 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C201" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E201" t="s">
         <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5183,16 +5199,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C202" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E202" t="s">
         <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5200,16 +5216,16 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C203" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E203" t="s">
         <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5217,16 +5233,16 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C204" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E204" t="s">
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5234,16 +5250,16 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C205" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E205" t="s">
         <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5251,16 +5267,16 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E206" t="s">
         <v>38</v>
       </c>
       <c r="F206" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5268,16 +5284,16 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E207" t="s">
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,16 +5301,16 @@
         <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C208" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E208" t="s">
         <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,16 +5318,16 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C209" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E209" t="s">
         <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5319,16 +5335,16 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C210" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E210" t="s">
         <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5336,16 +5352,16 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E211" t="s">
         <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5353,16 +5369,16 @@
         <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C212" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E212" t="s">
         <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5370,16 +5386,16 @@
         <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E213" t="s">
         <v>38</v>
       </c>
-      <c r="F213" s="16" t="s">
-        <v>223</v>
+      <c r="F213" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,16 +5403,16 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C214" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E214" t="s">
         <v>38</v>
       </c>
-      <c r="F214" s="16" t="s">
-        <v>224</v>
+      <c r="F214" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5404,15 +5420,49 @@
         <v>20</v>
       </c>
       <c r="B215" t="s">
+        <v>226</v>
+      </c>
+      <c r="C215" t="s">
+        <v>226</v>
+      </c>
+      <c r="E215" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" t="s">
+        <v>227</v>
+      </c>
+      <c r="C216" t="s">
+        <v>227</v>
+      </c>
+      <c r="E216" t="s">
+        <v>38</v>
+      </c>
+      <c r="F216" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" t="s">
         <v>228</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C217" t="s">
         <v>228</v>
       </c>
-      <c r="E215" t="s">
-        <v>38</v>
-      </c>
-      <c r="F215" s="16" t="s">
+      <c r="E217" t="s">
+        <v>38</v>
+      </c>
+      <c r="F217" s="16" t="s">
         <v>225</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="282">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -885,13 +885,19 @@
   </si>
   <si>
     <t>IND_37_SUPER</t>
+  </si>
+  <si>
+    <t>INDICATOR_XRA_FACTORING</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_XRA_FACTORING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1024,6 +1030,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1072,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1101,6 +1113,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,6 +1450,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1470,6 +1502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1727,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5464,6 +5513,23 @@
       </c>
       <c r="F217" s="16" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E218" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218" s="22" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="283">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -891,12 +891,15 @@
   </si>
   <si>
     <t>CUSTOMER_INDICATOR_XRA_FACTORING</t>
+  </si>
+  <si>
+    <t>ESP_FL_SCONFINO_CTPY_RED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1116,6 +1119,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1450,23 +1454,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1502,23 +1489,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1776,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,20 +4143,21 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E139" t="s">
-        <v>38</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>106</v>
+      <c r="A139" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4194,16 +4165,16 @@
         <v>20</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,16 +4182,16 @@
         <v>20</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4228,16 +4199,16 @@
         <v>20</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,16 +4216,16 @@
         <v>20</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,33 +4233,33 @@
         <v>20</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
-      <c r="B145" t="s">
-        <v>118</v>
-      </c>
-      <c r="C145" t="s">
-        <v>118</v>
+      <c r="B145" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
-      <c r="F145" t="s">
-        <v>118</v>
+      <c r="F145" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4296,16 +4267,16 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4313,16 +4284,16 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4330,16 +4301,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4347,16 +4318,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4364,16 +4335,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4381,16 +4352,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4398,16 +4369,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,16 +4386,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,16 +4403,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,16 +4420,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C155" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,16 +4437,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4483,16 +4454,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4500,16 +4471,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4517,16 +4488,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4534,16 +4505,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C160" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4551,16 +4522,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4568,16 +4539,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,16 +4556,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4602,16 +4573,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C164" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,16 +4590,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C165" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,16 +4607,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C166" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4653,16 +4624,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,16 +4641,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,16 +4658,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4704,16 +4675,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4721,16 +4692,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4738,16 +4709,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C172" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4755,16 +4726,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4772,16 +4743,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4789,16 +4760,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,16 +4777,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C176" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4823,16 +4794,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4840,16 +4811,16 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,16 +4828,16 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C179" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4874,16 +4845,16 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4891,16 +4862,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E181" t="s">
         <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4908,16 +4879,16 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E182" t="s">
         <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,16 +4896,16 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C183" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E183" t="s">
         <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4942,16 +4913,16 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E184" t="s">
         <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4959,16 +4930,16 @@
         <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E185" t="s">
         <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4976,16 +4947,16 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C186" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4993,16 +4964,16 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,16 +4981,16 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5027,16 +4998,16 @@
         <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E189" t="s">
         <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,16 +5015,16 @@
         <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5061,16 +5032,16 @@
         <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C191" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5078,16 +5049,16 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5095,16 +5066,16 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C193" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5112,16 +5083,16 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5129,16 +5100,16 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C195" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,16 +5117,16 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5163,16 +5134,16 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C197" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5180,16 +5151,16 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5197,16 +5168,16 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5214,16 +5185,16 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C200" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5231,16 +5202,16 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E201" t="s">
         <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5248,16 +5219,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E202" t="s">
         <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5265,16 +5236,16 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E203" t="s">
         <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5282,16 +5253,16 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E204" t="s">
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5299,16 +5270,16 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E205" t="s">
         <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5316,16 +5287,16 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E206" t="s">
         <v>38</v>
       </c>
       <c r="F206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5333,16 +5304,16 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E207" t="s">
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5350,16 +5321,16 @@
         <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E208" t="s">
         <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5367,16 +5338,16 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E209" t="s">
         <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5384,16 +5355,16 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C210" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E210" t="s">
         <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5401,16 +5372,16 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E211" t="s">
         <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5418,16 +5389,16 @@
         <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E212" t="s">
         <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5435,16 +5406,16 @@
         <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E213" t="s">
         <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5452,16 +5423,16 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E214" t="s">
         <v>38</v>
       </c>
       <c r="F214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5469,16 +5440,16 @@
         <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C215" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E215" t="s">
         <v>38</v>
       </c>
-      <c r="F215" s="16" t="s">
-        <v>223</v>
+      <c r="F215" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,16 +5457,16 @@
         <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C216" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E216" t="s">
         <v>38</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5503,32 +5474,49 @@
         <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C217" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E217" t="s">
         <v>38</v>
       </c>
       <c r="F217" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>20</v>
       </c>
-      <c r="B218" s="22" t="s">
+      <c r="B218" t="s">
+        <v>228</v>
+      </c>
+      <c r="C218" t="s">
+        <v>228</v>
+      </c>
+      <c r="E218" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C218" s="22" t="s">
+      <c r="C219" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E218" t="s">
-        <v>38</v>
-      </c>
-      <c r="F218" s="22" t="s">
+      <c r="E219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" s="22" t="s">
         <v>280</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="285">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -894,16 +894,29 @@
   </si>
   <si>
     <t>ESP_FL_SCONFINO_CTPY_RED</t>
+  </si>
+  <si>
+    <t>IND_34_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_34_SUPER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1085,41 +1098,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,72 +2798,72 @@
       <c r="A61" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>278</v>
+      <c r="B61" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="21" t="s">
-        <v>278</v>
+      <c r="F61" s="24" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>279</v>
+      <c r="B62" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="21" t="s">
-        <v>279</v>
+      <c r="F62" s="24" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>247</v>
+      <c r="B63" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="19" t="s">
-        <v>247</v>
+      <c r="F63" s="21" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>248</v>
+      <c r="B64" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="19" t="s">
-        <v>248</v>
+      <c r="F64" s="21" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,17 +2871,17 @@
         <v>20</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,17 +2889,17 @@
         <v>20</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,17 +2907,17 @@
         <v>20</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,17 +2925,17 @@
         <v>20</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2929,17 +2943,17 @@
         <v>20</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,17 +2961,17 @@
         <v>20</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,53 +2979,53 @@
         <v>20</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>256</v>
+      <c r="B72" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="20" t="s">
-        <v>256</v>
+      <c r="F72" s="19" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>257</v>
+      <c r="B73" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="20" t="s">
-        <v>257</v>
+      <c r="F73" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,17 +3033,17 @@
         <v>20</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3037,17 +3051,17 @@
         <v>20</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3055,17 +3069,17 @@
         <v>20</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,17 +3087,17 @@
         <v>20</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3091,17 +3105,17 @@
         <v>20</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3109,17 +3123,17 @@
         <v>20</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,17 +3141,17 @@
         <v>20</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,17 +3159,17 @@
         <v>20</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,17 +3177,17 @@
         <v>20</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3181,17 +3195,17 @@
         <v>20</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,17 +3213,17 @@
         <v>20</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3217,17 +3231,17 @@
         <v>20</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3235,17 +3249,17 @@
         <v>20</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,17 +3267,17 @@
         <v>20</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,17 +3285,17 @@
         <v>20</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,17 +3303,17 @@
         <v>20</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,17 +3321,17 @@
         <v>20</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,17 +3339,17 @@
         <v>20</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3343,17 +3357,17 @@
         <v>20</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3361,87 +3375,87 @@
         <v>20</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
+      <c r="B94" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>98</v>
+      <c r="A95" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>240</v>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>241</v>
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3449,85 +3463,87 @@
         <v>20</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F98" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="18" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E100" t="s">
-        <v>38</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>100</v>
+      <c r="C100" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>101</v>
+      <c r="B101" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>101</v>
+      <c r="F101" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>102</v>
+      <c r="B102" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>102</v>
+      <c r="F102" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,16 +3551,16 @@
         <v>20</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3552,16 +3568,16 @@
         <v>20</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,16 +3585,16 @@
         <v>20</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3586,16 +3602,16 @@
         <v>20</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3603,16 +3619,16 @@
         <v>20</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3620,16 +3636,16 @@
         <v>20</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,33 +3653,33 @@
         <v>20</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
-      <c r="B110" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" t="s">
-        <v>149</v>
+      <c r="B110" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
-      <c r="F110" t="s">
-        <v>149</v>
+      <c r="F110" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3671,67 +3687,67 @@
         <v>20</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>117</v>
+      <c r="B112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" t="s">
+        <v>149</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
-      <c r="F112" s="11" t="s">
-        <v>117</v>
+      <c r="F112" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
-      <c r="B113" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" t="s">
-        <v>150</v>
+      <c r="B113" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
-      <c r="F113" t="s">
-        <v>150</v>
+      <c r="F113" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
-      <c r="B114" t="s">
-        <v>151</v>
-      </c>
-      <c r="C114" t="s">
-        <v>151</v>
+      <c r="B114" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
-      <c r="F114" t="s">
-        <v>151</v>
+      <c r="F114" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3739,16 +3755,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3756,16 +3772,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3773,16 +3789,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3790,16 +3806,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3807,16 +3823,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3824,16 +3840,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3841,16 +3857,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,16 +3874,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,16 +3891,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,16 +3908,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3909,16 +3925,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,16 +3942,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3943,16 +3959,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3960,16 +3976,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3977,16 +3993,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,16 +4010,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4011,16 +4027,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4028,16 +4044,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,16 +4061,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C133" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4062,50 +4078,50 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
-      <c r="B135" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>236</v>
+      <c r="B135" t="s">
+        <v>220</v>
+      </c>
+      <c r="C135" t="s">
+        <v>220</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
-      <c r="F135" s="17" t="s">
-        <v>236</v>
+      <c r="F135" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
-      <c r="B136" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>237</v>
+      <c r="B136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" t="s">
+        <v>221</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="17" t="s">
-        <v>237</v>
+      <c r="F136" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,16 +4129,16 @@
         <v>20</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4130,68 +4146,68 @@
         <v>20</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="C139" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F139" s="23" t="s">
-        <v>282</v>
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>106</v>
+      <c r="B140" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>106</v>
+      <c r="F140" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>20</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E141" t="s">
-        <v>38</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>107</v>
+      <c r="A141" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,16 +4215,16 @@
         <v>20</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4216,16 +4232,16 @@
         <v>20</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4233,16 +4249,16 @@
         <v>20</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,50 +4266,50 @@
         <v>20</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
-      <c r="B146" t="s">
-        <v>118</v>
-      </c>
-      <c r="C146" t="s">
-        <v>118</v>
+      <c r="B146" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
-      <c r="F146" t="s">
-        <v>118</v>
+      <c r="F146" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
-      <c r="B147" t="s">
-        <v>119</v>
-      </c>
-      <c r="C147" t="s">
-        <v>119</v>
+      <c r="B147" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
-      <c r="F147" t="s">
-        <v>119</v>
+      <c r="F147" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4301,16 +4317,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C148" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,16 +4334,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C149" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,16 +4351,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C150" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,16 +4368,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C151" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4369,16 +4385,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C152" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4386,16 +4402,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C153" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4403,16 +4419,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C154" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4420,16 +4436,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,16 +4453,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C156" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4454,16 +4470,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C157" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4471,16 +4487,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C158" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4488,16 +4504,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,16 +4521,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,16 +4538,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C161" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,16 +4555,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C162" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,16 +4572,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C163" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4573,16 +4589,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C164" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4590,16 +4606,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C165" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4607,16 +4623,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C166" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,16 +4640,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C167" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4641,16 +4657,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C168" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4658,16 +4674,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4675,16 +4691,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C170" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,16 +4708,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C171" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4709,16 +4725,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4726,16 +4742,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C173" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4743,16 +4759,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C174" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4760,16 +4776,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C175" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4777,16 +4793,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4794,16 +4810,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4811,16 +4827,16 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4828,16 +4844,16 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C179" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,16 +4861,16 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C180" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,16 +4878,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C181" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E181" t="s">
         <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,16 +4895,16 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E182" t="s">
         <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4896,16 +4912,16 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C183" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E183" t="s">
         <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4913,16 +4929,16 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C184" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E184" t="s">
         <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4930,16 +4946,16 @@
         <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C185" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E185" t="s">
         <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4947,16 +4963,16 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C186" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,16 +4980,16 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C187" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4981,16 +4997,16 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C188" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4998,16 +5014,16 @@
         <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C189" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E189" t="s">
         <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5015,16 +5031,16 @@
         <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C190" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5032,16 +5048,16 @@
         <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C191" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5049,16 +5065,16 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C192" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,16 +5082,16 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C193" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5083,16 +5099,16 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C194" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5100,16 +5116,16 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C195" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5117,16 +5133,16 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C196" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5134,16 +5150,16 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C197" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5151,16 +5167,16 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C198" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5168,16 +5184,16 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C199" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,16 +5201,16 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C200" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5202,16 +5218,16 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C201" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E201" t="s">
         <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,16 +5235,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C202" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E202" t="s">
         <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5236,16 +5252,16 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C203" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E203" t="s">
         <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5253,16 +5269,16 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C204" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E204" t="s">
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5270,16 +5286,16 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C205" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E205" t="s">
         <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5287,16 +5303,16 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C206" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E206" t="s">
         <v>38</v>
       </c>
       <c r="F206" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5304,16 +5320,16 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C207" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E207" t="s">
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5321,16 +5337,16 @@
         <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C208" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E208" t="s">
         <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5338,16 +5354,16 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E209" t="s">
         <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5355,16 +5371,16 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C210" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E210" t="s">
         <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5372,16 +5388,16 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E211" t="s">
         <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5389,16 +5405,16 @@
         <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E212" t="s">
         <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5406,16 +5422,16 @@
         <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C213" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E213" t="s">
         <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5423,16 +5439,16 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C214" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E214" t="s">
         <v>38</v>
       </c>
       <c r="F214" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5440,16 +5456,16 @@
         <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C215" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E215" t="s">
         <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5457,16 +5473,16 @@
         <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C216" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E216" t="s">
         <v>38</v>
       </c>
-      <c r="F216" s="16" t="s">
-        <v>223</v>
+      <c r="F216" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5474,16 +5490,16 @@
         <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C217" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E217" t="s">
         <v>38</v>
       </c>
-      <c r="F217" s="16" t="s">
-        <v>224</v>
+      <c r="F217" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5491,32 +5507,66 @@
         <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C218" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E218" t="s">
         <v>38</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>20</v>
       </c>
-      <c r="B219" s="22" t="s">
+      <c r="B219" t="s">
+        <v>227</v>
+      </c>
+      <c r="C219" t="s">
+        <v>227</v>
+      </c>
+      <c r="E219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" t="s">
+        <v>228</v>
+      </c>
+      <c r="C220" t="s">
+        <v>228</v>
+      </c>
+      <c r="E220" t="s">
+        <v>38</v>
+      </c>
+      <c r="F220" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C219" s="22" t="s">
+      <c r="C221" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E219" t="s">
-        <v>38</v>
-      </c>
-      <c r="F219" s="22" t="s">
+      <c r="E221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" s="22" t="s">
         <v>280</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -242,670 +242,670 @@
     <t>CUSTOMER_SEGMENT</t>
   </si>
   <si>
+    <t>CUSTOMER_EXPOSURE</t>
+  </si>
+  <si>
+    <t>TargetVariable</t>
+  </si>
+  <si>
+    <t>LIB_EWS_IT.ExternalInfo(Param1);</t>
+  </si>
+  <si>
+    <t>JD_NEG_EV_PERS</t>
+  </si>
+  <si>
+    <t>JD_PROTEST_INT</t>
+  </si>
+  <si>
+    <t>JD_DECANAL_PTF</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT</t>
+  </si>
+  <si>
+    <t>JD_INADE_QDEBT</t>
+  </si>
+  <si>
+    <t>JD_DEBT_PUBBLI</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_AVVI</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_NEG_EV_PERS</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_PROTEST_INT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_DECANAL_PTF</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_REATI_GRAVI</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_CONCOR_RICH</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_ACC_RISTRUT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_INADE_QDEBT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_DEBT_PUBBLI</t>
+  </si>
+  <si>
+    <t>CUSTOMER_JD_CONCOR_AVVI</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>GROUP_BANKRUPTCY_FL_DATE</t>
+  </si>
+  <si>
+    <t>CUSTOMER_GROUP_BANKRUPTCY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>CUSTOMER_GROUP_BANKRUPTCY_FL_DATE</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RATING_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DELTA_EQUITY_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>DELTA_TURNOVER_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>SCONFINO_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>SEGNALAZIONE_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>FL_PEGG_BILANCI</t>
+  </si>
+  <si>
+    <t>FL_DATE6M</t>
+  </si>
+  <si>
+    <t>SEGNALAZIONE_SOFF_BANCA</t>
+  </si>
+  <si>
+    <t>DIFF_SEGNALAZIONE_OVER</t>
+  </si>
+  <si>
+    <t>CRSYS_TUA</t>
+  </si>
+  <si>
+    <t>CRSYS_TUR</t>
+  </si>
+  <si>
+    <t>CRSYS_TUS</t>
+  </si>
+  <si>
+    <t>CRSYS_UCFBT</t>
+  </si>
+  <si>
+    <t>CRSYS_Q_DER</t>
+  </si>
+  <si>
+    <t>CRSYS_TUC</t>
+  </si>
+  <si>
+    <t>CRSYS_ITUR</t>
+  </si>
+  <si>
+    <t>CRSYS_UA</t>
+  </si>
+  <si>
+    <t>CRSYS_US</t>
+  </si>
+  <si>
+    <t>CRSYS_UR</t>
+  </si>
+  <si>
+    <t>CRSYS_UT</t>
+  </si>
+  <si>
+    <t>CR0_TUA</t>
+  </si>
+  <si>
+    <t>CR0_TUR</t>
+  </si>
+  <si>
+    <t>CR0_TUS</t>
+  </si>
+  <si>
+    <t>CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>XRA_GSC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>XRA_RSC_ACC_L1M</t>
+  </si>
+  <si>
+    <t>CR0_TUC</t>
+  </si>
+  <si>
+    <t>CR0_ITUR</t>
+  </si>
+  <si>
+    <t>CR0_UA</t>
+  </si>
+  <si>
+    <t>CR0_US</t>
+  </si>
+  <si>
+    <t>CR0_UR</t>
+  </si>
+  <si>
+    <t>CR0_UT</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_AT_M_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_AT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_BT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_FAT_L3M</t>
+  </si>
+  <si>
+    <t>CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t>FACT_ANT_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>PREAM_UTIL_ACC_L1M</t>
+  </si>
+  <si>
+    <t>PREAM_MAX_MM_L1M</t>
+  </si>
+  <si>
+    <t>EDF_ImpliedRating</t>
+  </si>
+  <si>
+    <t>Bond_ImpliedRating</t>
+  </si>
+  <si>
+    <t>CDS_ImpliedRating</t>
+  </si>
+  <si>
+    <t>5Y_CDS_Spread</t>
+  </si>
+  <si>
+    <t>Distance_to_default</t>
+  </si>
+  <si>
+    <t>Rating_stress</t>
+  </si>
+  <si>
+    <t>Notizie_Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>Colore_Modulo_Dati_di_Mercato</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_MOL_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_MOL_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_MOL_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_M_L3M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_M_L3M</t>
+  </si>
+  <si>
+    <t>ISDA_CREDIT_EVENT_DECLARED_CDS</t>
+  </si>
+  <si>
+    <t>CDS_SPREAD_5Y</t>
+  </si>
+  <si>
+    <t>JD_PASTDUE_PUBCRED_EMPL</t>
+  </si>
+  <si>
+    <t>JD_COLLATER_VAL_DECR</t>
+  </si>
+  <si>
+    <t>JD_DELTA_CASHFLOW</t>
+  </si>
+  <si>
+    <t>COVENANT_BREACH</t>
+  </si>
+  <si>
+    <t>JD_BOND_TRADE_SUSP</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT_2</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH_2</t>
+  </si>
+  <si>
+    <t>JD_INCROCIO_ASSEGNI</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI_FAM</t>
+  </si>
+  <si>
+    <t>DM_Color_EDF</t>
+  </si>
+  <si>
+    <t>DM_Color_CDS</t>
+  </si>
+  <si>
+    <t>DM_Color_BOND</t>
+  </si>
+  <si>
+    <t>AVVIO_PROCEDUTA_CONCORSUALE_SOGLIE</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>INDICATOR_QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP1</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP2</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP3</t>
+  </si>
+  <si>
+    <t>FITCH_01</t>
+  </si>
+  <si>
+    <t>FITCH_02</t>
+  </si>
+  <si>
+    <t>FITCH_03</t>
+  </si>
+  <si>
+    <t>FITCH_04</t>
+  </si>
+  <si>
+    <t>FITCH_05</t>
+  </si>
+  <si>
+    <t>FITCH_06</t>
+  </si>
+  <si>
+    <t>FITCH_07</t>
+  </si>
+  <si>
+    <t>ESP_FL_RATA_ARRETRATA</t>
+  </si>
+  <si>
+    <t>ESP_FL_SCONFINO_CC</t>
+  </si>
+  <si>
+    <t>ESP_FL_SCONFINO_CTPY</t>
+  </si>
+  <si>
+    <t>ESP_FL_FORBORNE_SCONFINO</t>
+  </si>
+  <si>
+    <t>IND_12_CHANGE</t>
+  </si>
+  <si>
+    <t>IND_12_DELTA_DT</t>
+  </si>
+  <si>
+    <t>IND_212_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>NOPG_ROSSO_OVERRIDE</t>
+  </si>
+  <si>
+    <t>NOPG_ARANCIONE_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_117_FL_SUPER</t>
+  </si>
+  <si>
+    <t>IND_118_FL_SUPER</t>
+  </si>
+  <si>
+    <t>IND_25_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_525_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_512_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_25_OVER</t>
+  </si>
+  <si>
+    <t>IND_525_OVER</t>
+  </si>
+  <si>
+    <t>IND_512_OVER</t>
+  </si>
+  <si>
+    <t>IND_36_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_536_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_36_SUPER</t>
+  </si>
+  <si>
+    <t>IND_132_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_133_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_134_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_135_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_136_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_137_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_138_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_139_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_140_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_141_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_142_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_132_OVER</t>
+  </si>
+  <si>
+    <t>IND_133_OVER</t>
+  </si>
+  <si>
+    <t>IND_134_OVER</t>
+  </si>
+  <si>
+    <t>IND_135_FL_DATE_12M</t>
+  </si>
+  <si>
+    <t>IND_136_OVER</t>
+  </si>
+  <si>
+    <t>IND_137_OVER</t>
+  </si>
+  <si>
+    <t>IND_138_OVER</t>
+  </si>
+  <si>
+    <t>IND_139_OVER</t>
+  </si>
+  <si>
+    <t>IND_140_OVER</t>
+  </si>
+  <si>
+    <t>IND_141_OVER</t>
+  </si>
+  <si>
+    <t>IND_142_OVER</t>
+  </si>
+  <si>
+    <t>IND_37_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_37_SUPER</t>
+  </si>
+  <si>
+    <t>INDICATOR_XRA_FACTORING</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INDICATOR_XRA_FACTORING</t>
+  </si>
+  <si>
+    <t>ESP_FL_SCONFINO_CTPY_RED</t>
+  </si>
+  <si>
+    <t>IND_34_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>IND_34_SUPER</t>
+  </si>
+  <si>
     <t>EXPOSURE</t>
-  </si>
-  <si>
-    <t>CUSTOMER_EXPOSURE</t>
-  </si>
-  <si>
-    <t>TargetVariable</t>
-  </si>
-  <si>
-    <t>LIB_EWS_IT.ExternalInfo(Param1);</t>
-  </si>
-  <si>
-    <t>JD_NEG_EV_PERS</t>
-  </si>
-  <si>
-    <t>JD_PROTEST_INT</t>
-  </si>
-  <si>
-    <t>JD_DECANAL_PTF</t>
-  </si>
-  <si>
-    <t>JD_REATI_GRAVI</t>
-  </si>
-  <si>
-    <t>JD_CONCOR_RICH</t>
-  </si>
-  <si>
-    <t>JD_ACC_RISTRUT</t>
-  </si>
-  <si>
-    <t>JD_INADE_QDEBT</t>
-  </si>
-  <si>
-    <t>JD_DEBT_PUBBLI</t>
-  </si>
-  <si>
-    <t>JD_CONCOR_AVVI</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_NEG_EV_PERS</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_PROTEST_INT</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_DECANAL_PTF</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_REATI_GRAVI</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_CONCOR_RICH</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_ACC_RISTRUT</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_INADE_QDEBT</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_DEBT_PUBBLI</t>
-  </si>
-  <si>
-    <t>CUSTOMER_JD_CONCOR_AVVI</t>
-  </si>
-  <si>
-    <t>GROUP_BANKRUPTCY_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>GROUP_BANKRUPTCY_FL_DATE</t>
-  </si>
-  <si>
-    <t>CUSTOMER_GROUP_BANKRUPTCY_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>CUSTOMER_GROUP_BANKRUPTCY_FL_DATE</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_RATING_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>DEBT_SERVICE_COVERAGE_RATIO_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>DELTA_EQUITY_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>DELTA_TURNOVER_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>SCONFINO_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>SEGNALAZIONE_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>FL_PEGG_BILANCI</t>
-  </si>
-  <si>
-    <t>FL_DATE6M</t>
-  </si>
-  <si>
-    <t>SEGNALAZIONE_SOFF_BANCA</t>
-  </si>
-  <si>
-    <t>DIFF_SEGNALAZIONE_OVER</t>
-  </si>
-  <si>
-    <t>CRSYS_TUA</t>
-  </si>
-  <si>
-    <t>CRSYS_TUR</t>
-  </si>
-  <si>
-    <t>CRSYS_TUS</t>
-  </si>
-  <si>
-    <t>CRSYS_UCFBT</t>
-  </si>
-  <si>
-    <t>CRSYS_Q_DER</t>
-  </si>
-  <si>
-    <t>CRSYS_TUC</t>
-  </si>
-  <si>
-    <t>CRSYS_ITUR</t>
-  </si>
-  <si>
-    <t>CRSYS_UA</t>
-  </si>
-  <si>
-    <t>CRSYS_US</t>
-  </si>
-  <si>
-    <t>CRSYS_UR</t>
-  </si>
-  <si>
-    <t>CRSYS_UT</t>
-  </si>
-  <si>
-    <t>CR0_TUA</t>
-  </si>
-  <si>
-    <t>CR0_TUR</t>
-  </si>
-  <si>
-    <t>CR0_TUS</t>
-  </si>
-  <si>
-    <t>CR0_UCFBT</t>
-  </si>
-  <si>
-    <t>XRA_GSC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>XRA_RSC_ACC_L1M</t>
-  </si>
-  <si>
-    <t>CR0_TUC</t>
-  </si>
-  <si>
-    <t>CR0_ITUR</t>
-  </si>
-  <si>
-    <t>CR0_UA</t>
-  </si>
-  <si>
-    <t>CR0_US</t>
-  </si>
-  <si>
-    <t>CR0_UR</t>
-  </si>
-  <si>
-    <t>CR0_UT</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_AT_B90_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_AT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_AT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_FLAG_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_FLAG_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MM_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MM_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_M_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_M_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_M_AT_M_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_M_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_AT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_BT_B90_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_FAT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_FAT_L3M</t>
-  </si>
-  <si>
-    <t>CR0_Q_DER</t>
-  </si>
-  <si>
-    <t>NPAF_ANT_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>EFINS_INSOL_SCAD_TPREC</t>
-  </si>
-  <si>
-    <t>FACT_ANT_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>FACT_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>PREAM_UTIL_ACC_L1M</t>
-  </si>
-  <si>
-    <t>PREAM_MAX_MM_L1M</t>
-  </si>
-  <si>
-    <t>EDF_ImpliedRating</t>
-  </si>
-  <si>
-    <t>Bond_ImpliedRating</t>
-  </si>
-  <si>
-    <t>CDS_ImpliedRating</t>
-  </si>
-  <si>
-    <t>5Y_CDS_Spread</t>
-  </si>
-  <si>
-    <t>Distance_to_default</t>
-  </si>
-  <si>
-    <t>Rating_stress</t>
-  </si>
-  <si>
-    <t>Notizie_Pregiudizievoli</t>
-  </si>
-  <si>
-    <t>Colore_Modulo_Dati_di_Mercato</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_DOC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_DOC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_FAT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_DB_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_DB_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_MOL_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_MOL_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_MOL_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_MOL_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_MOL_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_MOL_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_1G_M_L3M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_30G_M_L3M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_60G_M_L3M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_1G_M_L3M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_30G_M_L3M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_60G_M_L3M</t>
-  </si>
-  <si>
-    <t>ISDA_CREDIT_EVENT_DECLARED_CDS</t>
-  </si>
-  <si>
-    <t>CDS_SPREAD_5Y</t>
-  </si>
-  <si>
-    <t>JD_PASTDUE_PUBCRED_EMPL</t>
-  </si>
-  <si>
-    <t>JD_COLLATER_VAL_DECR</t>
-  </si>
-  <si>
-    <t>JD_DELTA_CASHFLOW</t>
-  </si>
-  <si>
-    <t>COVENANT_BREACH</t>
-  </si>
-  <si>
-    <t>JD_BOND_TRADE_SUSP</t>
-  </si>
-  <si>
-    <t>JD_ACC_RISTRUT_2</t>
-  </si>
-  <si>
-    <t>JD_CONCOR_RICH_2</t>
-  </si>
-  <si>
-    <t>JD_INCROCIO_ASSEGNI</t>
-  </si>
-  <si>
-    <t>JD_REATI_GRAVI_FAM</t>
-  </si>
-  <si>
-    <t>DM_Color_EDF</t>
-  </si>
-  <si>
-    <t>DM_Color_CDS</t>
-  </si>
-  <si>
-    <t>DM_Color_BOND</t>
-  </si>
-  <si>
-    <t>AVVIO_PROCEDUTA_CONCORSUALE_SOGLIE</t>
-  </si>
-  <si>
-    <t>INDICATOR_QUOTA_EXP_GRP1</t>
-  </si>
-  <si>
-    <t>INDICATOR_QUOTA_EXP_GRP2</t>
-  </si>
-  <si>
-    <t>INDICATOR_QUOTA_EXP_GRP3</t>
-  </si>
-  <si>
-    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP1</t>
-  </si>
-  <si>
-    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP2</t>
-  </si>
-  <si>
-    <t>CUSTOMER_INDICATOR_QUOTA_EXP_GRP3</t>
-  </si>
-  <si>
-    <t>FITCH_01</t>
-  </si>
-  <si>
-    <t>FITCH_02</t>
-  </si>
-  <si>
-    <t>FITCH_03</t>
-  </si>
-  <si>
-    <t>FITCH_04</t>
-  </si>
-  <si>
-    <t>FITCH_05</t>
-  </si>
-  <si>
-    <t>FITCH_06</t>
-  </si>
-  <si>
-    <t>FITCH_07</t>
-  </si>
-  <si>
-    <t>ESP_FL_RATA_ARRETRATA</t>
-  </si>
-  <si>
-    <t>ESP_FL_SCONFINO_CC</t>
-  </si>
-  <si>
-    <t>ESP_FL_SCONFINO_CTPY</t>
-  </si>
-  <si>
-    <t>ESP_FL_FORBORNE_SCONFINO</t>
-  </si>
-  <si>
-    <t>IND_12_CHANGE</t>
-  </si>
-  <si>
-    <t>IND_12_DELTA_DT</t>
-  </si>
-  <si>
-    <t>IND_212_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>NOPG_ROSSO_OVERRIDE</t>
-  </si>
-  <si>
-    <t>NOPG_ARANCIONE_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_117_FL_SUPER</t>
-  </si>
-  <si>
-    <t>IND_118_FL_SUPER</t>
-  </si>
-  <si>
-    <t>IND_25_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_525_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_512_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_25_OVER</t>
-  </si>
-  <si>
-    <t>IND_525_OVER</t>
-  </si>
-  <si>
-    <t>IND_512_OVER</t>
-  </si>
-  <si>
-    <t>IND_36_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_536_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_36_SUPER</t>
-  </si>
-  <si>
-    <t>IND_132_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_133_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_134_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_135_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_136_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_137_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_138_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_139_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_140_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_141_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_142_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_132_OVER</t>
-  </si>
-  <si>
-    <t>IND_133_OVER</t>
-  </si>
-  <si>
-    <t>IND_134_OVER</t>
-  </si>
-  <si>
-    <t>IND_135_FL_DATE_12M</t>
-  </si>
-  <si>
-    <t>IND_136_OVER</t>
-  </si>
-  <si>
-    <t>IND_137_OVER</t>
-  </si>
-  <si>
-    <t>IND_138_OVER</t>
-  </si>
-  <si>
-    <t>IND_139_OVER</t>
-  </si>
-  <si>
-    <t>IND_140_OVER</t>
-  </si>
-  <si>
-    <t>IND_141_OVER</t>
-  </si>
-  <si>
-    <t>IND_142_OVER</t>
-  </si>
-  <si>
-    <t>IND_37_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_37_SUPER</t>
-  </si>
-  <si>
-    <t>INDICATOR_XRA_FACTORING</t>
-  </si>
-  <si>
-    <t>CUSTOMER_INDICATOR_XRA_FACTORING</t>
-  </si>
-  <si>
-    <t>ESP_FL_SCONFINO_CTPY_RED</t>
-  </si>
-  <si>
-    <t>IND_34_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_34_SUPER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1169,7 +1169,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1217,7 +1223,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1260,7 +1272,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1308,7 +1326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1356,7 +1380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1468,6 +1498,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1503,6 +1550,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1716,7 +1780,7 @@
         <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1745,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -1762,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,16 +2162,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,16 +2179,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,16 +2196,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,16 +2213,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,16 +2230,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,16 +2247,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,16 +2264,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,16 +2281,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,16 +2298,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2251,16 +2315,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,16 +2332,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,16 +2349,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,16 +2366,16 @@
         <v>20</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,16 +2383,16 @@
         <v>20</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,16 +2400,16 @@
         <v>20</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2353,16 +2417,16 @@
         <v>20</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2370,16 +2434,16 @@
         <v>20</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,16 +2451,16 @@
         <v>20</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2404,16 +2468,16 @@
         <v>20</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,16 +2485,16 @@
         <v>20</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,16 +2502,16 @@
         <v>20</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,16 +2519,16 @@
         <v>20</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,16 +2536,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,16 +2553,16 @@
         <v>20</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,16 +2570,16 @@
         <v>20</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,16 +2587,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,16 +2604,16 @@
         <v>20</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2557,16 +2621,16 @@
         <v>20</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2574,16 +2638,16 @@
         <v>20</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,16 +2655,16 @@
         <v>20</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,16 +2672,16 @@
         <v>20</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,16 +2689,16 @@
         <v>20</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2642,16 +2706,16 @@
         <v>20</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,16 +2723,16 @@
         <v>20</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2676,16 +2740,16 @@
         <v>20</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,16 +2757,16 @@
         <v>20</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,16 +2774,16 @@
         <v>20</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,17 +2791,17 @@
         <v>20</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2745,17 +2809,17 @@
         <v>20</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2763,17 +2827,17 @@
         <v>20</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,17 +2845,17 @@
         <v>20</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,17 +2863,17 @@
         <v>20</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,17 +2881,17 @@
         <v>20</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,17 +2899,17 @@
         <v>20</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,17 +2917,17 @@
         <v>20</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,17 +2935,17 @@
         <v>20</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,17 +2953,17 @@
         <v>20</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,17 +2971,17 @@
         <v>20</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,17 +2989,17 @@
         <v>20</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,17 +3007,17 @@
         <v>20</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,17 +3025,17 @@
         <v>20</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2979,17 +3043,17 @@
         <v>20</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2997,17 +3061,17 @@
         <v>20</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,17 +3079,17 @@
         <v>20</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,17 +3097,17 @@
         <v>20</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,17 +3115,17 @@
         <v>20</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,17 +3133,17 @@
         <v>20</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,17 +3151,17 @@
         <v>20</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3105,17 +3169,17 @@
         <v>20</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3123,17 +3187,17 @@
         <v>20</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,17 +3205,17 @@
         <v>20</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3159,17 +3223,17 @@
         <v>20</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3177,17 +3241,17 @@
         <v>20</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,17 +3259,17 @@
         <v>20</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,17 +3277,17 @@
         <v>20</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3231,17 +3295,17 @@
         <v>20</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3249,17 +3313,17 @@
         <v>20</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3267,17 +3331,17 @@
         <v>20</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,17 +3349,17 @@
         <v>20</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3303,17 +3367,17 @@
         <v>20</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,17 +3385,17 @@
         <v>20</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3339,17 +3403,17 @@
         <v>20</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3357,17 +3421,17 @@
         <v>20</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,17 +3439,17 @@
         <v>20</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3393,17 +3457,17 @@
         <v>20</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3411,17 +3475,17 @@
         <v>20</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,16 +3493,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3446,16 +3510,16 @@
         <v>20</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3463,17 +3527,17 @@
         <v>20</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3481,17 +3545,17 @@
         <v>20</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,17 +3563,17 @@
         <v>20</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3517,16 +3581,16 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3534,16 +3598,16 @@
         <v>20</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3551,16 +3615,16 @@
         <v>20</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,16 +3632,16 @@
         <v>20</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,16 +3649,16 @@
         <v>20</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3602,16 +3666,16 @@
         <v>20</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3619,16 +3683,16 @@
         <v>20</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3636,16 +3700,16 @@
         <v>20</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3653,16 +3717,16 @@
         <v>20</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3670,16 +3734,16 @@
         <v>20</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3687,16 +3751,16 @@
         <v>20</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,16 +3768,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,16 +3785,16 @@
         <v>20</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,16 +3802,16 @@
         <v>20</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,16 +3819,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3772,16 +3836,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3789,16 +3853,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,16 +3870,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3823,16 +3887,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,16 +3904,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3857,16 +3921,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3874,16 +3938,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,16 +3955,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3908,16 +3972,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,16 +3989,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3942,16 +4006,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,16 +4023,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3976,16 +4040,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3993,16 +4057,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4010,16 +4074,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4027,16 +4091,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,16 +4108,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4061,16 +4125,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4078,16 +4142,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4095,16 +4159,16 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4112,16 +4176,16 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4129,16 +4193,16 @@
         <v>20</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4146,16 +4210,16 @@
         <v>20</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4163,16 +4227,16 @@
         <v>20</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E139" t="s">
         <v>38</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4180,16 +4244,16 @@
         <v>20</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,17 +4261,17 @@
         <v>20</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D141" s="16"/>
       <c r="E141" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4215,16 +4279,16 @@
         <v>20</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4232,16 +4296,16 @@
         <v>20</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4249,16 +4313,16 @@
         <v>20</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4266,16 +4330,16 @@
         <v>20</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4283,16 +4347,16 @@
         <v>20</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4300,16 +4364,16 @@
         <v>20</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4317,16 +4381,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4334,16 +4398,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4351,16 +4415,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4368,16 +4432,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,16 +4449,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4402,16 +4466,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4419,16 +4483,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4436,16 +4500,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4453,16 +4517,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,16 +4534,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,16 +4551,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4504,16 +4568,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4521,16 +4585,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4538,16 +4602,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4555,16 +4619,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4572,16 +4636,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4589,16 +4653,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,16 +4670,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C165" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4623,16 +4687,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4640,16 +4704,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4657,16 +4721,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C168" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4674,16 +4738,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4691,16 +4755,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4708,16 +4772,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C171" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,16 +4789,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C172" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4742,16 +4806,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C173" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4759,16 +4823,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C174" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4776,16 +4840,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4793,16 +4857,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4810,16 +4874,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4827,16 +4891,16 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,16 +4908,16 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C179" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4861,16 +4925,16 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4878,16 +4942,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E181" t="s">
         <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4895,16 +4959,16 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C182" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E182" t="s">
         <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,16 +4976,16 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E183" t="s">
         <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4929,16 +4993,16 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C184" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E184" t="s">
         <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4946,16 +5010,16 @@
         <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C185" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E185" t="s">
         <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4963,16 +5027,16 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C186" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4980,16 +5044,16 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4997,16 +5061,16 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C188" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5014,16 +5078,16 @@
         <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C189" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E189" t="s">
         <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5031,16 +5095,16 @@
         <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C190" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5048,16 +5112,16 @@
         <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C191" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,16 +5129,16 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,16 +5146,16 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C193" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,16 +5163,16 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5116,16 +5180,16 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C195" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5133,16 +5197,16 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C196" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5150,16 +5214,16 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C197" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5167,16 +5231,16 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C198" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5184,16 +5248,16 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C199" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5201,16 +5265,16 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C200" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,16 +5282,16 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C201" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E201" t="s">
         <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5235,16 +5299,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C202" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E202" t="s">
         <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5252,16 +5316,16 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E203" t="s">
         <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5269,16 +5333,16 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C204" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E204" t="s">
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5286,16 +5350,16 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E205" t="s">
         <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5303,16 +5367,16 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C206" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E206" t="s">
         <v>38</v>
       </c>
       <c r="F206" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5320,16 +5384,16 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C207" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E207" t="s">
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5337,16 +5401,16 @@
         <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C208" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E208" t="s">
         <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5354,16 +5418,16 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E209" t="s">
         <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5371,16 +5435,16 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E210" t="s">
         <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5388,16 +5452,16 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C211" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E211" t="s">
         <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5405,16 +5469,16 @@
         <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E212" t="s">
         <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5422,16 +5486,16 @@
         <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C213" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E213" t="s">
         <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5439,16 +5503,16 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C214" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E214" t="s">
         <v>38</v>
       </c>
       <c r="F214" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5456,16 +5520,16 @@
         <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C215" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E215" t="s">
         <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5473,16 +5537,16 @@
         <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E216" t="s">
         <v>38</v>
       </c>
       <c r="F216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5490,16 +5554,16 @@
         <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E217" t="s">
         <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5507,16 +5571,16 @@
         <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C218" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E218" t="s">
         <v>38</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5524,16 +5588,16 @@
         <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C219" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E219" t="s">
         <v>38</v>
       </c>
       <c r="F219" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5541,16 +5605,16 @@
         <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C220" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E220" t="s">
         <v>38</v>
       </c>
       <c r="F220" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5558,16 +5622,16 @@
         <v>20</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E221" t="s">
         <v>38</v>
       </c>
       <c r="F221" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/03_Inst_Analysis_Unit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="283">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -891,12 +891,6 @@
   </si>
   <si>
     <t>ESP_FL_SCONFINO_CTPY_RED</t>
-  </si>
-  <si>
-    <t>IND_34_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_34_SUPER</t>
   </si>
   <si>
     <t>EXPOSURE</t>
@@ -905,18 +899,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1098,42 +1085,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,7 +1158,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1212,7 @@
         <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1261,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1315,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1369,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,23 +1484,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1550,23 +1519,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1824,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2123,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2862,72 +2814,72 @@
       <c r="A61" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>282</v>
+      <c r="B61" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>277</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>282</v>
+      <c r="F61" s="21" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>283</v>
+      <c r="B62" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="24" t="s">
-        <v>283</v>
+      <c r="F62" s="21" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>277</v>
+      <c r="B63" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="21" t="s">
-        <v>277</v>
+      <c r="F63" s="19" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>278</v>
+      <c r="B64" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="21" t="s">
-        <v>278</v>
+      <c r="F64" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,17 +2887,17 @@
         <v>20</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,17 +2905,17 @@
         <v>20</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,17 +2923,17 @@
         <v>20</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,17 +2941,17 @@
         <v>20</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,17 +2959,17 @@
         <v>20</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,17 +2977,17 @@
         <v>20</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3043,53 +2995,53 @@
         <v>20</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>253</v>
+      <c r="B72" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>253</v>
+      <c r="F72" s="20" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>254</v>
+      <c r="B73" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="19" t="s">
-        <v>254</v>
+      <c r="F73" s="20" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,17 +3049,17 @@
         <v>20</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,17 +3067,17 @@
         <v>20</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,17 +3085,17 @@
         <v>20</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,17 +3103,17 @@
         <v>20</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,17 +3121,17 @@
         <v>20</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3187,17 +3139,17 @@
         <v>20</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,17 +3157,17 @@
         <v>20</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,17 +3175,17 @@
         <v>20</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3241,17 +3193,17 @@
         <v>20</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,17 +3211,17 @@
         <v>20</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,17 +3229,17 @@
         <v>20</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,17 +3247,17 @@
         <v>20</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,17 +3265,17 @@
         <v>20</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,17 +3283,17 @@
         <v>20</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,17 +3301,17 @@
         <v>20</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3367,17 +3319,17 @@
         <v>20</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,17 +3337,17 @@
         <v>20</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,17 +3355,17 @@
         <v>20</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,17 +3373,17 @@
         <v>20</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3439,87 +3391,87 @@
         <v>20</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>275</v>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>276</v>
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" t="s">
-        <v>96</v>
+      <c r="B96" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E97" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>97</v>
+      <c r="A97" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,87 +3479,85 @@
         <v>20</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>240</v>
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>241</v>
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>98</v>
+      <c r="B101" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="9" t="s">
-        <v>98</v>
+      <c r="F101" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>99</v>
+      <c r="B102" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" s="10" t="s">
-        <v>99</v>
+      <c r="F102" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3615,16 +3565,16 @@
         <v>20</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3632,16 +3582,16 @@
         <v>20</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3649,16 +3599,16 @@
         <v>20</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3666,16 +3616,16 @@
         <v>20</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3683,16 +3633,16 @@
         <v>20</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3700,16 +3650,16 @@
         <v>20</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,33 +3667,33 @@
         <v>20</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>113</v>
+      <c r="B110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" t="s">
+        <v>148</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
-      <c r="F110" s="11" t="s">
-        <v>113</v>
+      <c r="F110" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,67 +3701,67 @@
         <v>20</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
-      <c r="B112" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112" t="s">
-        <v>148</v>
+      <c r="B112" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
-      <c r="F112" t="s">
-        <v>148</v>
+      <c r="F112" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>115</v>
+      <c r="B113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" t="s">
+        <v>149</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>115</v>
+      <c r="F113" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>116</v>
+      <c r="B114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" t="s">
+        <v>150</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="11" t="s">
-        <v>116</v>
+      <c r="F114" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,16 +3769,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3836,16 +3786,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3853,16 +3803,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C117" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3870,16 +3820,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C118" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,16 +3837,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3904,16 +3854,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C120" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3921,16 +3871,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C121" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3938,16 +3888,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,16 +3905,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,16 +3922,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3989,16 +3939,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4006,16 +3956,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4023,16 +3973,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C127" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4040,16 +3990,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C128" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,16 +4007,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C129" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4074,16 +4024,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C130" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4091,16 +4041,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4108,16 +4058,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,16 +4075,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4142,50 +4092,50 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C134" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
-      <c r="B135" t="s">
-        <v>219</v>
-      </c>
-      <c r="C135" t="s">
-        <v>219</v>
+      <c r="B135" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
       </c>
-      <c r="F135" t="s">
-        <v>219</v>
+      <c r="F135" s="17" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
-      <c r="B136" t="s">
-        <v>220</v>
-      </c>
-      <c r="C136" t="s">
-        <v>220</v>
+      <c r="B136" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
       </c>
-      <c r="F136" t="s">
-        <v>220</v>
+      <c r="F136" s="17" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4193,16 +4143,16 @@
         <v>20</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E137" t="s">
         <v>38</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4210,68 +4160,68 @@
         <v>20</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E138" t="s">
         <v>38</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E139" t="s">
-        <v>38</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>237</v>
+      <c r="A139" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
-      <c r="B140" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>238</v>
+      <c r="B140" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
       </c>
-      <c r="F140" s="17" t="s">
-        <v>238</v>
+      <c r="F140" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F141" s="23" t="s">
-        <v>281</v>
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,16 +4229,16 @@
         <v>20</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E142" t="s">
         <v>38</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4296,16 +4246,16 @@
         <v>20</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4313,16 +4263,16 @@
         <v>20</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E144" t="s">
         <v>38</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4330,50 +4280,50 @@
         <v>20</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>109</v>
+      <c r="B146" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" t="s">
+        <v>117</v>
       </c>
       <c r="E146" t="s">
         <v>38</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>109</v>
+      <c r="F146" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>110</v>
+      <c r="B147" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" t="s">
+        <v>118</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
       </c>
-      <c r="F147" s="11" t="s">
-        <v>110</v>
+      <c r="F147" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4381,16 +4331,16 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C148" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4398,16 +4348,16 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C149" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,16 +4365,16 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C150" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,16 +4382,16 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,16 +4399,16 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C152" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,16 +4416,16 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C153" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4483,16 +4433,16 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C154" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4500,16 +4450,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C155" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4517,16 +4467,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C156" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4534,16 +4484,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C157" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4551,16 +4501,16 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C158" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E158" t="s">
         <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4568,16 +4518,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C159" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E159" t="s">
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,16 +4535,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C160" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4602,16 +4552,16 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C161" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,16 +4569,16 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C162" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,16 +4586,16 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C163" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4653,16 +4603,16 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C164" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,16 +4620,16 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C165" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,16 +4637,16 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C166" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4704,16 +4654,16 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C167" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4721,16 +4671,16 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C168" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4738,16 +4688,16 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C169" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4755,16 +4705,16 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C170" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4772,16 +4722,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C171" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E171" t="s">
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4789,16 +4739,16 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C172" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,16 +4756,16 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C173" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4823,16 +4773,16 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C174" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4840,16 +4790,16 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C175" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,16 +4807,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4874,16 +4824,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C177" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4891,16 +4841,16 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C178" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4908,16 +4858,16 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C179" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,16 +4875,16 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C180" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4942,16 +4892,16 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C181" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E181" t="s">
         <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4959,16 +4909,16 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C182" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E182" t="s">
         <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4976,16 +4926,16 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C183" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E183" t="s">
         <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4993,16 +4943,16 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C184" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E184" t="s">
         <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,16 +4960,16 @@
         <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C185" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E185" t="s">
         <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5027,16 +4977,16 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C186" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,16 +4994,16 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C187" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5061,16 +5011,16 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C188" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5078,16 +5028,16 @@
         <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C189" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E189" t="s">
         <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5095,16 +5045,16 @@
         <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C190" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5112,16 +5062,16 @@
         <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C191" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5129,16 +5079,16 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C192" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,16 +5096,16 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C193" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5163,16 +5113,16 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C194" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5180,16 +5130,16 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C195" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5197,16 +5147,16 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C196" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5214,16 +5164,16 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C197" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5231,16 +5181,16 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C198" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5248,16 +5198,16 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C199" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5265,16 +5215,16 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C200" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5282,16 +5232,16 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C201" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E201" t="s">
         <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5299,16 +5249,16 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C202" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E202" t="s">
         <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5316,16 +5266,16 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C203" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E203" t="s">
         <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5333,16 +5283,16 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C204" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E204" t="s">
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5350,16 +5300,16 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C205" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E205" t="s">
         <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5367,16 +5317,16 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C206" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E206" t="s">
         <v>38</v>
       </c>
       <c r="F206" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5384,16 +5334,16 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C207" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E207" t="s">
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5401,16 +5351,16 @@
         <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E208" t="s">
         <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5418,16 +5368,16 @@
         <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C209" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E209" t="s">
         <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5435,16 +5385,16 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C210" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E210" t="s">
         <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5452,16 +5402,16 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C211" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E211" t="s">
         <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5469,16 +5419,16 @@
         <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C212" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E212" t="s">
         <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,16 +5436,16 @@
         <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C213" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E213" t="s">
         <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5503,16 +5453,16 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C214" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E214" t="s">
         <v>38</v>
       </c>
       <c r="F214" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5520,16 +5470,16 @@
         <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C215" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E215" t="s">
         <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5537,16 +5487,16 @@
         <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C216" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E216" t="s">
         <v>38</v>
       </c>
-      <c r="F216" t="s">
-        <v>205</v>
+      <c r="F216" s="16" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5554,16 +5504,16 @@
         <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C217" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="E217" t="s">
         <v>38</v>
       </c>
-      <c r="F217" t="s">
-        <v>206</v>
+      <c r="F217" s="16" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5571,66 +5521,32 @@
         <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C218" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E218" t="s">
         <v>38</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>20</v>
       </c>
-      <c r="B219" t="s">
-        <v>226</v>
-      </c>
-      <c r="C219" t="s">
-        <v>226</v>
+      <c r="B219" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="E219" t="s">
         <v>38</v>
       </c>
-      <c r="F219" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>20</v>
-      </c>
-      <c r="B220" t="s">
-        <v>227</v>
-      </c>
-      <c r="C220" t="s">
-        <v>227</v>
-      </c>
-      <c r="E220" t="s">
-        <v>38</v>
-      </c>
-      <c r="F220" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>20</v>
-      </c>
-      <c r="B221" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E221" t="s">
-        <v>38</v>
-      </c>
-      <c r="F221" s="22" t="s">
+      <c r="F219" s="22" t="s">
         <v>279</v>
       </c>
     </row>
